--- a/src/Quadrotor_States1.xlsx
+++ b/src/Quadrotor_States1.xlsx
@@ -428,784 +428,784 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>220.00058521165266</v>
+        <v>220.00026959066784</v>
       </c>
       <c r="B2">
-        <v>250.00168013729635</v>
+        <v>250.00072582102888</v>
       </c>
       <c r="C2">
-        <v>10.864939153266704</v>
+        <v>10.864927139321171</v>
       </c>
       <c r="D2">
-        <v>0.9999991636641616</v>
+        <v>0.9999997243416573</v>
       </c>
       <c r="E2">
-        <v>-0.002410300915191863</v>
+        <v>-0.0010412608900588801</v>
       </c>
       <c r="F2">
-        <v>0.0008395365263134299</v>
+        <v>0.0003867540448786701</v>
       </c>
       <c r="G2">
-        <v>1.6083605012322702e-9</v>
+        <v>-1.0487571689399101e-16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>219.98571921366795</v>
+        <v>219.99273067256067</v>
       </c>
       <c r="B3">
-        <v>249.9967983683734</v>
+        <v>250.00143886042096</v>
       </c>
       <c r="C3">
-        <v>11.650163032935579</v>
+        <v>11.65047097814216</v>
       </c>
       <c r="D3">
-        <v>0.9997490203041695</v>
+        <v>0.9999439909785484</v>
       </c>
       <c r="E3">
-        <v>0.007267470319224173</v>
+        <v>-0.0010652922919146992</v>
       </c>
       <c r="F3">
-        <v>-0.022140724594210494</v>
+        <v>-0.01123764832025641</v>
       </c>
       <c r="G3">
-        <v>-0.0003203973995197328</v>
+        <v>-2.6498588398049186e-6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>219.96963381621924</v>
+        <v>219.98482525636933</v>
       </c>
       <c r="B4">
-        <v>249.9915358818329</v>
+        <v>250.0021779609179</v>
       </c>
       <c r="C4">
-        <v>12.363614069572765</v>
+        <v>12.363793598199235</v>
       </c>
       <c r="D4">
-        <v>0.9996733061388057</v>
+        <v>0.9999332887766554</v>
       </c>
       <c r="E4">
-        <v>0.008131811155070147</v>
+        <v>-0.001145912195236593</v>
       </c>
       <c r="F4">
-        <v>-0.02484215504191628</v>
+        <v>-0.012221470947576212</v>
       </c>
       <c r="G4">
-        <v>-2.1934756237047996e-5</v>
+        <v>-3.0199053615329836e-6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>219.95288703052648</v>
+        <v>219.97664596688688</v>
       </c>
       <c r="B5">
-        <v>249.98605454214774</v>
+        <v>250.002942479048</v>
       </c>
       <c r="C5">
-        <v>13.011381053777908</v>
+        <v>13.011525438739707</v>
       </c>
       <c r="D5">
-        <v>0.999620886009978</v>
+        <v>0.9999231552673236</v>
       </c>
       <c r="E5">
-        <v>0.008765663824147257</v>
+        <v>-0.0012273724887350728</v>
       </c>
       <c r="F5">
-        <v>-0.026763404478887625</v>
+        <v>-0.01308612498073136</v>
       </c>
       <c r="G5">
-        <v>-0.00010692853502706234</v>
+        <v>-2.8583672499424103e-6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>219.9354412260046</v>
+        <v>219.96449995234218</v>
       </c>
       <c r="B6">
-        <v>249.98033644764675</v>
+        <v>249.95724406499687</v>
       </c>
       <c r="C6">
-        <v>13.599391420745148</v>
+        <v>13.61950846179564</v>
       </c>
       <c r="D6">
-        <v>0.9995620095884905</v>
+        <v>0.9970140514007063</v>
       </c>
       <c r="E6">
-        <v>0.009443997784961404</v>
+        <v>0.07463022813286826</v>
       </c>
       <c r="F6">
-        <v>-0.02879035049832363</v>
+        <v>-0.019834565490675724</v>
       </c>
       <c r="G6">
-        <v>-0.0003507695769766792</v>
+        <v>1.1050578884936881e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>219.89016242679884</v>
+        <v>219.92773771811352</v>
       </c>
       <c r="B7">
-        <v>249.9736413246062</v>
+        <v>249.91059641175895</v>
       </c>
       <c r="C7">
-        <v>14.152946838743171</v>
+        <v>14.184271806018279</v>
       </c>
       <c r="D7">
-        <v>0.9970282361004321</v>
+        <v>0.9950620863234991</v>
       </c>
       <c r="E7">
-        <v>0.011267579330743557</v>
+        <v>0.0779421975263948</v>
       </c>
       <c r="F7">
-        <v>-0.07620679113326266</v>
+        <v>-0.06142401491881902</v>
       </c>
       <c r="G7">
-        <v>1.663317614358357e-5</v>
+        <v>2.4695313743101066e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>219.84317984333694</v>
+        <v>219.88961695483405</v>
       </c>
       <c r="B8">
-        <v>249.9666945109946</v>
+        <v>249.86222542773598</v>
       </c>
       <c r="C8">
-        <v>14.658004671751165</v>
+        <v>14.701036800776686</v>
       </c>
       <c r="D8">
-        <v>0.9966190327979575</v>
+        <v>0.9943953189752971</v>
       </c>
       <c r="E8">
-        <v>0.012016170998704806</v>
+        <v>0.08301959626795787</v>
       </c>
       <c r="F8">
-        <v>-0.08127274325362915</v>
+        <v>-0.06542597445942969</v>
       </c>
       <c r="G8">
-        <v>1.9942948563673247e-5</v>
+        <v>2.7287183986506357e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>219.79184266001974</v>
+        <v>219.85011030953697</v>
       </c>
       <c r="B9">
-        <v>249.96232251980584</v>
+        <v>249.81209652400972</v>
       </c>
       <c r="C9">
-        <v>15.121479148612895</v>
+        <v>15.174524982587489</v>
       </c>
       <c r="D9">
-        <v>0.9958237261722371</v>
+        <v>0.993671690646245</v>
       </c>
       <c r="E9">
-        <v>0.007744899928202327</v>
+        <v>0.08819537115938278</v>
       </c>
       <c r="F9">
-        <v>-0.0909547551144338</v>
+        <v>-0.06950562808979209</v>
       </c>
       <c r="G9">
-        <v>2.970827758888134e-5</v>
+        <v>3.05186162253215e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>219.7386565924339</v>
+        <v>219.8091936407595</v>
       </c>
       <c r="B10">
-        <v>249.95779347778824</v>
+        <v>249.76017934668008</v>
       </c>
       <c r="C10">
-        <v>15.545364552430074</v>
+        <v>15.609023440746506</v>
       </c>
       <c r="D10">
-        <v>0.9953006588811085</v>
+        <v>0.9928915770009736</v>
       </c>
       <c r="E10">
-        <v>0.008213401674886317</v>
+        <v>0.09344958080035048</v>
       </c>
       <c r="F10">
-        <v>-0.09646588064581017</v>
+        <v>-0.07364748446434037</v>
       </c>
       <c r="G10">
-        <v>3.524210886130508e-5</v>
+        <v>3.535272598553793e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>219.68360497225834</v>
+        <v>219.73954619148384</v>
       </c>
       <c r="B11">
-        <v>249.95310603561583</v>
+        <v>249.7093907453672</v>
       </c>
       <c r="C11">
-        <v>15.93349591494203</v>
+        <v>16.036125602006088</v>
       </c>
       <c r="D11">
-        <v>0.9947407424428625</v>
+        <v>0.9878272011837405</v>
       </c>
       <c r="E11">
-        <v>0.00868643448664138</v>
+        <v>0.09159283523281816</v>
       </c>
       <c r="F11">
-        <v>-0.10203225738493932</v>
+        <v>-0.12560094001206648</v>
       </c>
       <c r="G11">
-        <v>4.152475841748826e-5</v>
+        <v>0.00023278098363854814</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>219.6280352401519</v>
+        <v>219.6679373819163</v>
       </c>
       <c r="B12">
-        <v>249.91513788816243</v>
+        <v>249.65727047873946</v>
       </c>
       <c r="C12">
-        <v>16.30286242372074</v>
+        <v>16.431731619286747</v>
       </c>
       <c r="D12">
-        <v>0.9920198164283532</v>
+        <v>0.9866532613061523</v>
       </c>
       <c r="E12">
-        <v>0.07109969022393654</v>
+        <v>0.09575575674976064</v>
       </c>
       <c r="F12">
-        <v>-0.10406060611631066</v>
+        <v>-0.13155928247910997</v>
       </c>
       <c r="G12">
-        <v>5.047645517739511e-5</v>
+        <v>0.000758463146040114</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>219.57060380925685</v>
+        <v>219.5936353126526</v>
       </c>
       <c r="B13">
-        <v>249.8758992069551</v>
+        <v>249.6031638789197</v>
       </c>
       <c r="C13">
-        <v>16.6432206113271</v>
+        <v>16.79915182549215</v>
       </c>
       <c r="D13">
-        <v>0.9911606162393027</v>
+        <v>0.9851200694359724</v>
       </c>
       <c r="E13">
-        <v>0.07480725895539334</v>
+        <v>0.10109282957644561</v>
       </c>
       <c r="F13">
-        <v>-0.10949086672347515</v>
+        <v>-0.13882107301457708</v>
       </c>
       <c r="G13">
-        <v>6.223104300065633e-5</v>
+        <v>0.0006753678387950495</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>219.4358659756421</v>
+        <v>219.51704466106307</v>
       </c>
       <c r="B14">
-        <v>249.84676253675048</v>
+        <v>249.54739052195106</v>
       </c>
       <c r="C14">
-        <v>17.098464082547054</v>
+        <v>17.141267464514595</v>
       </c>
       <c r="D14">
-        <v>0.9698281079707619</v>
+        <v>0.9836858700548914</v>
       </c>
       <c r="E14">
-        <v>0.05121006894347428</v>
+        <v>0.10581198030765823</v>
       </c>
       <c r="F14">
-        <v>-0.2367573279475672</v>
+        <v>-0.14529834759271987</v>
       </c>
       <c r="G14">
-        <v>-0.02136314330467509</v>
+        <v>0.0007052212097034686</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>219.30194799549744</v>
+        <v>219.43825361630363</v>
       </c>
       <c r="B15">
-        <v>249.80703170513732</v>
+        <v>249.4898368554855</v>
       </c>
       <c r="C15">
-        <v>17.524073738635998</v>
+        <v>17.460648132730213</v>
       </c>
       <c r="D15">
-        <v>0.9677264080384714</v>
+        <v>0.9821956661599742</v>
       </c>
       <c r="E15">
-        <v>0.07100110713045249</v>
+        <v>0.1107167547391844</v>
       </c>
       <c r="F15">
-        <v>-0.23926880494469863</v>
+        <v>-0.15155674076719589</v>
       </c>
       <c r="G15">
-        <v>-0.02947330961447239</v>
+        <v>-0.00010830276304162355</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>219.16858115125265</v>
+        <v>219.35629592404143</v>
       </c>
       <c r="B16">
-        <v>249.76593618742135</v>
+        <v>249.4298201276793</v>
       </c>
       <c r="C16">
-        <v>17.918739788094165</v>
+        <v>17.76103615358067</v>
       </c>
       <c r="D16">
-        <v>0.9664138274954533</v>
+        <v>0.9802270793194887</v>
       </c>
       <c r="E16">
-        <v>0.07478892558907928</v>
+        <v>0.11678155688779235</v>
       </c>
       <c r="F16">
-        <v>-0.2426607223989864</v>
+        <v>-0.15945745455814336</v>
       </c>
       <c r="G16">
-        <v>-0.03449535362172515</v>
+        <v>-0.0008415078396036129</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>219.0360471680865</v>
+        <v>219.27155215296693</v>
       </c>
       <c r="B17">
-        <v>249.72652973188298</v>
+        <v>249.36791777525917</v>
       </c>
       <c r="C17">
-        <v>18.282047092519786</v>
+        <v>18.044254614897454</v>
       </c>
       <c r="D17">
-        <v>0.9656322162872768</v>
+        <v>0.978428224325585</v>
       </c>
       <c r="E17">
-        <v>0.07309939215650657</v>
+        <v>0.12171379750330237</v>
       </c>
       <c r="F17">
-        <v>-0.24579845576282983</v>
+        <v>-0.1665963224076738</v>
       </c>
       <c r="G17">
-        <v>-0.03739415708888262</v>
+        <v>-0.0001500672239981155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>218.90643276999663</v>
+        <v>219.18373270558683</v>
       </c>
       <c r="B18">
-        <v>249.687016995963</v>
+        <v>249.30378772476186</v>
       </c>
       <c r="C18">
-        <v>18.611117264480463</v>
+        <v>18.313073776788997</v>
       </c>
       <c r="D18">
-        <v>0.9654132451312101</v>
+        <v>0.9764019892059159</v>
       </c>
       <c r="E18">
-        <v>0.07489978544245231</v>
+        <v>0.12718615280986426</v>
       </c>
       <c r="F18">
-        <v>-0.24563980035919356</v>
+        <v>-0.17412788308371938</v>
       </c>
       <c r="G18">
-        <v>-0.04032358381312098</v>
+        <v>-0.000126314245383111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>218.77941299740962</v>
+        <v>219.09240583672084</v>
       </c>
       <c r="B19">
-        <v>249.64750437889927</v>
+        <v>249.237084917124</v>
       </c>
       <c r="C19">
-        <v>18.90974196908085</v>
+        <v>18.570781151422633</v>
       </c>
       <c r="D19">
-        <v>0.9652176508171757</v>
+        <v>0.9740983017081197</v>
       </c>
       <c r="E19">
-        <v>0.07638549939943823</v>
+        <v>0.13308863671314408</v>
       </c>
       <c r="F19">
-        <v>-0.24549662801694133</v>
+        <v>-0.18224852323641422</v>
       </c>
       <c r="G19">
-        <v>-0.042930754844790364</v>
+        <v>-0.00020590113756349736</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>218.65471538288625</v>
+        <v>218.99805314206876</v>
       </c>
       <c r="B20">
-        <v>249.60824860478368</v>
+        <v>249.16816036031378</v>
       </c>
       <c r="C20">
-        <v>19.180951270711137</v>
+        <v>18.818419429590847</v>
       </c>
       <c r="D20">
-        <v>0.965087993592333</v>
+        <v>0.9719910328905776</v>
       </c>
       <c r="E20">
-        <v>0.07727184751781993</v>
+        <v>0.13830638275267207</v>
       </c>
       <c r="F20">
-        <v>-0.2453990441650445</v>
+        <v>-0.18937242504301446</v>
       </c>
       <c r="G20">
-        <v>-0.04473098367944417</v>
+        <v>-0.0002832467056612076</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>218.53209677724968</v>
+        <v>218.9004431336227</v>
       </c>
       <c r="B21">
-        <v>249.5694688390706</v>
+        <v>249.09684267918848</v>
       </c>
       <c r="C21">
-        <v>19.427461059376064</v>
+        <v>19.058398769305143</v>
       </c>
       <c r="D21">
-        <v>0.9650202022383452</v>
+        <v>0.9697294460284326</v>
       </c>
       <c r="E21">
-        <v>0.07761152312917609</v>
+        <v>0.14368148135113584</v>
       </c>
       <c r="F21">
-        <v>-0.2453424351470296</v>
+        <v>-0.19670736604813496</v>
       </c>
       <c r="G21">
-        <v>-0.04587509458039295</v>
+        <v>-0.0003824864448885051</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>218.41133598560455</v>
+        <v>218.7991381217443</v>
       </c>
       <c r="B22">
-        <v>249.5313179260719</v>
+        <v>249.02282470289032</v>
       </c>
       <c r="C22">
-        <v>19.65175048321527</v>
+        <v>19.29367728205434</v>
       </c>
       <c r="D22">
-        <v>0.9650065977975348</v>
+        <v>0.9672127206048771</v>
       </c>
       <c r="E22">
-        <v>0.07752173583156224</v>
+        <v>0.1494309480434845</v>
       </c>
       <c r="F22">
-        <v>-0.2453231384134756</v>
+        <v>-0.20454993919117218</v>
       </c>
       <c r="G22">
-        <v>-0.04640571238072501</v>
+        <v>-0.0004253820547333859</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>218.29354473536694</v>
+        <v>218.6940412213525</v>
       </c>
       <c r="B23">
-        <v>249.49371140766607</v>
+        <v>248.94602157809973</v>
       </c>
       <c r="C23">
-        <v>19.840888379593554</v>
+        <v>19.526499669690068</v>
       </c>
       <c r="D23">
-        <v>0.9648603576284541</v>
+        <v>0.9646205428510412</v>
       </c>
       <c r="E23">
-        <v>0.0783056251392049</v>
+        <v>0.1551065403605994</v>
       </c>
       <c r="F23">
-        <v>-0.24520763320371572</v>
+        <v>-0.21228604447546987</v>
       </c>
       <c r="G23">
-        <v>-0.04863360020689205</v>
+        <v>-0.0005439700505425281</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>218.18195298531137</v>
+        <v>218.5834715295162</v>
       </c>
       <c r="B24">
-        <v>249.45586428063535</v>
+        <v>248.86343590137713</v>
       </c>
       <c r="C24">
-        <v>19.957808876694184</v>
+        <v>19.764696659492888</v>
       </c>
       <c r="D24">
-        <v>0.9640922563094885</v>
+        <v>0.9605501480147939</v>
       </c>
       <c r="E24">
-        <v>0.0830009720217959</v>
+        <v>0.16585870930781635</v>
       </c>
       <c r="F24">
-        <v>-0.24466233620902675</v>
+        <v>-0.2220583877815519</v>
       </c>
       <c r="G24">
-        <v>-0.0577165021709476</v>
+        <v>-0.00437740028453201</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>218.07949514286761</v>
+        <v>218.47715381161638</v>
       </c>
       <c r="B25">
-        <v>249.42694456435726</v>
+        <v>248.78292683252894</v>
       </c>
       <c r="C25">
-        <v>19.999999998503363</v>
+        <v>19.938735321279754</v>
       </c>
       <c r="D25">
-        <v>0.9679302417517675</v>
+        <v>0.9597028230279327</v>
       </c>
       <c r="E25">
-        <v>0.06730956742683408</v>
+        <v>0.1690233745090312</v>
       </c>
       <c r="F25">
-        <v>-0.2383993947490234</v>
+        <v>-0.2232051291347308</v>
       </c>
       <c r="G25">
-        <v>-0.037422052315263646</v>
+        <v>-0.007367470239883023</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>217.9814201416911</v>
+        <v>218.37177475810373</v>
       </c>
       <c r="B26">
-        <v>249.4016104649938</v>
+        <v>248.75622717838903</v>
       </c>
       <c r="C26">
-        <v>19.999999999581252</v>
+        <v>19.99999999936089</v>
       </c>
       <c r="D26">
-        <v>0.9691809088482969</v>
+        <v>0.9670473932501742</v>
       </c>
       <c r="E26">
-        <v>0.06103515984944297</v>
+        <v>0.0611917894232326</v>
       </c>
       <c r="F26">
-        <v>-0.23622176379672713</v>
+        <v>-0.24142079628490096</v>
       </c>
       <c r="G26">
-        <v>-0.029089802462847283</v>
+        <v>-0.04918256278121028</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>217.88334419254628</v>
+        <v>218.27369679799597</v>
       </c>
       <c r="B27">
-        <v>249.3764331734895</v>
+        <v>248.7370425735193</v>
       </c>
       <c r="C27">
-        <v>19.999999999479822</v>
+        <v>19.99999999948656</v>
       </c>
       <c r="D27">
-        <v>0.9692030429895556</v>
+        <v>0.9700268010717867</v>
       </c>
       <c r="E27">
-        <v>0.06065817223281178</v>
+        <v>0.04624375911219666</v>
       </c>
       <c r="F27">
-        <v>-0.23622666195856007</v>
+        <v>-0.23633359705444645</v>
       </c>
       <c r="G27">
-        <v>-0.029108624847759598</v>
+        <v>-0.02751738408388585</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>217.7852673131237</v>
+        <v>218.17561967543168</v>
       </c>
       <c r="B28">
-        <v>249.35141670685692</v>
+        <v>248.71801138394537</v>
       </c>
       <c r="C28">
-        <v>19.999999999552255</v>
+        <v>19.999999999480522</v>
       </c>
       <c r="D28">
-        <v>0.9692257148013458</v>
+        <v>0.970047135924364</v>
       </c>
       <c r="E28">
-        <v>0.06027151750673952</v>
+        <v>0.045874550605186235</v>
       </c>
       <c r="F28">
-        <v>-0.23623158794703897</v>
+        <v>-0.23633421033063828</v>
       </c>
       <c r="G28">
-        <v>-0.029124626293885167</v>
+        <v>-0.027420979976970277</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>217.6881568024326</v>
+        <v>218.0775434490379</v>
       </c>
       <c r="B29">
-        <v>249.3102662406494</v>
+        <v>248.69913643830455</v>
       </c>
       <c r="C29">
-        <v>19.999973338914785</v>
+        <v>19.999999999456506</v>
       </c>
       <c r="D29">
-        <v>0.9669803953382589</v>
+        <v>0.9700677931555529</v>
       </c>
       <c r="E29">
-        <v>0.09902275697937851</v>
+        <v>0.04549852424099319</v>
       </c>
       <c r="F29">
-        <v>-0.23366719066906652</v>
+        <v>-0.23633472903153888</v>
       </c>
       <c r="G29">
-        <v>-0.01366272394383405</v>
+        <v>-0.027320095940505197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>217.59017212748435</v>
+        <v>217.97946817994898</v>
       </c>
       <c r="B30">
-        <v>249.27392953243205</v>
+        <v>248.6804206497972</v>
       </c>
       <c r="C30">
-        <v>19.999999999999996</v>
+        <v>19.999999999479446</v>
       </c>
       <c r="D30">
-        <v>0.9674805635895125</v>
+        <v>0.9700887795180559</v>
       </c>
       <c r="E30">
-        <v>0.08745962349261129</v>
+        <v>0.04511547591503826</v>
       </c>
       <c r="F30">
-        <v>-0.2358153304194267</v>
+        <v>-0.2363351483561987</v>
       </c>
       <c r="G30">
-        <v>-0.019380304816140257</v>
+        <v>-0.027214541252565897</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>217.49218884942448</v>
+        <v>217.8813939317542</v>
       </c>
       <c r="B31">
-        <v>249.23766203360248</v>
+        <v>248.66186701948467</v>
       </c>
       <c r="C31">
-        <v>19.999999999503782</v>
+        <v>19.999999999485386</v>
       </c>
       <c r="D31">
-        <v>0.967493119650474</v>
+        <v>0.9701101018036861</v>
       </c>
       <c r="E31">
-        <v>0.08729474877401346</v>
+        <v>0.04472519349626339</v>
       </c>
       <c r="F31">
-        <v>-0.2358163617464908</v>
+        <v>-0.2363354633750834</v>
       </c>
       <c r="G31">
-        <v>-0.01948997305334382</v>
+        <v>-0.027104115938104342</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>217.39420548553323</v>
+        <v>217.78332077065375</v>
       </c>
       <c r="B32">
-        <v>249.20146427271652</v>
+        <v>248.643478639795</v>
       </c>
       <c r="C32">
-        <v>19.99999999951916</v>
+        <v>19.99999999948542</v>
       </c>
       <c r="D32">
-        <v>0.9675056356860117</v>
+        <v>0.9701317668554412</v>
       </c>
       <c r="E32">
-        <v>0.08712746358031456</v>
+        <v>0.04432745640182336</v>
       </c>
       <c r="F32">
-        <v>-0.23581789065142766</v>
+        <v>-0.23633566893326208</v>
       </c>
       <c r="G32">
-        <v>-0.01960427349104179</v>
+        <v>-0.026988610219126102</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>217.29622201630602</v>
+        <v>217.6852487655373</v>
       </c>
       <c r="B33">
-        <v>249.1653380764468</v>
+        <v>248.62525869817247</v>
       </c>
       <c r="C33">
-        <v>19.999999999545704</v>
+        <v>19.999999999547505</v>
       </c>
       <c r="D33">
-        <v>0.9675184413990688</v>
+        <v>0.9701537815408353</v>
       </c>
       <c r="E33">
-        <v>0.08695579278233265</v>
+        <v>0.04392203521981299</v>
       </c>
       <c r="F33">
-        <v>-0.23581949690650686</v>
+        <v>-0.23633575968294565</v>
       </c>
       <c r="G33">
-        <v>-0.019720816820295115</v>
+        <v>-0.026867803988810612</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>217.1982384210091</v>
+        <v>217.58717798805597</v>
       </c>
       <c r="B34">
-        <v>249.1292853532004</v>
+        <v>248.60721048089178</v>
       </c>
       <c r="C34">
-        <v>19.999999999538023</v>
+        <v>19.999999999576055</v>
       </c>
       <c r="D34">
-        <v>0.9675315488096282</v>
+        <v>0.9701761527308134</v>
       </c>
       <c r="E34">
-        <v>0.08677954003438632</v>
+        <v>0.04350869130727064</v>
       </c>
       <c r="F34">
-        <v>-0.2358211847257291</v>
+        <v>-0.2363357300837116</v>
       </c>
       <c r="G34">
-        <v>-0.01983967704252755</v>
+        <v>-0.026741466261453677</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>217.10025467757475</v>
+        <v>217.48910851268698</v>
       </c>
       <c r="B35">
-        <v>249.09330809827745</v>
+        <v>248.5893373770382</v>
       </c>
       <c r="C35">
-        <v>19.999999999561123</v>
+        <v>19.999999999546677</v>
       </c>
       <c r="D35">
-        <v>0.9675449706482163</v>
+        <v>0.9701988872744668</v>
       </c>
       <c r="E35">
-        <v>0.08659849658240687</v>
+        <v>0.043087176385877425</v>
       </c>
       <c r="F35">
-        <v>-0.23582295861989902</v>
+        <v>-0.23633557440215588</v>
       </c>
       <c r="G35">
-        <v>-0.019960931760626816</v>
+        <v>-0.02660935461909175</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States1.xlsx
+++ b/src/Quadrotor_States1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,922 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2.4373547650235228</v>
+        <v>221.18100781869654</v>
       </c>
       <c r="B2">
-        <v>10.000171692043867</v>
+        <v>248.65027019548796</v>
       </c>
       <c r="C2">
-        <v>5.046896471093081</v>
+        <v>12.039667294867701</v>
       </c>
       <c r="D2">
-        <v>0.999981022809138</v>
+        <v>0.9999821987688595</v>
       </c>
       <c r="E2">
-        <v>-4.61724764650336e-6</v>
+        <v>-0.0046957997055400115</v>
       </c>
       <c r="F2">
-        <v>-0.004121139566539029</v>
+        <v>-0.004109959780787532</v>
       </c>
       <c r="G2">
-        <v>-5.916092827724651e-5</v>
+        <v>-6.459956137019816e-6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1.361676085171322</v>
+        <v>220.56627883954286</v>
       </c>
       <c r="B3">
-        <v>10.00010278874458</v>
+        <v>248.4221160237972</v>
       </c>
       <c r="C3">
-        <v>4.938313116563589</v>
+        <v>15.221164094879283</v>
       </c>
       <c r="D3">
-        <v>0.9999344451486989</v>
+        <v>1.0000001741968176</v>
       </c>
       <c r="E3">
-        <v>-7.869582588977063e-6</v>
+        <v>-0.00020847873022889586</v>
       </c>
       <c r="F3">
-        <v>0.004596647444976041</v>
+        <v>0.00019580075581956084</v>
       </c>
       <c r="G3">
-        <v>-0.0006704303452623146</v>
+        <v>-0.00035032889254501995</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2.983795637694331</v>
+        <v>220.03405821460885</v>
       </c>
       <c r="B4">
-        <v>10.000064397258233</v>
+        <v>247.9123435744799</v>
       </c>
       <c r="C4">
-        <v>4.892919134351777</v>
+        <v>18.50571128918559</v>
       </c>
       <c r="D4">
-        <v>0.9999518369853281</v>
+        <v>1.0000033203192293</v>
       </c>
       <c r="E4">
-        <v>-8.466208017113327e-6</v>
+        <v>0.00017696352110831116</v>
       </c>
       <c r="F4">
-        <v>-0.0038461606004198527</v>
+        <v>-3.4329814445032943e-6</v>
       </c>
       <c r="G4">
-        <v>0.004784530913786008</v>
+        <v>-0.0008825267206975216</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2.784998815719126</v>
+        <v>219.158609641191</v>
       </c>
       <c r="B5">
-        <v>10.000030051428933</v>
+        <v>246.5363563736462</v>
       </c>
       <c r="C5">
-        <v>4.877197570609773</v>
+        <v>21.212148296490977</v>
       </c>
       <c r="D5">
-        <v>0.9999645225733925</v>
+        <v>0.9999852070974644</v>
       </c>
       <c r="E5">
-        <v>6.895571787073774e-7</v>
+        <v>-0.004818574756352868</v>
       </c>
       <c r="F5">
-        <v>0.0026473161015748144</v>
+        <v>0.0030648987186341634</v>
       </c>
       <c r="G5">
-        <v>0.000564001257041785</v>
+        <v>-5.325466486794458e-6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3.7317568857085277</v>
+        <v>218.05963608776602</v>
       </c>
       <c r="B6">
-        <v>10.000033594190894</v>
+        <v>244.83465891796195</v>
       </c>
       <c r="C6">
-        <v>4.877947009849106</v>
+        <v>23.351492491895407</v>
       </c>
       <c r="D6">
-        <v>0.9999680883885863</v>
+        <v>0.9999774264370134</v>
       </c>
       <c r="E6">
-        <v>-8.661172426643459e-7</v>
+        <v>-0.005853593644597631</v>
       </c>
       <c r="F6">
-        <v>-0.0016373293783903946</v>
+        <v>0.0037788051782304067</v>
       </c>
       <c r="G6">
-        <v>0.00045499391459529045</v>
+        <v>-1.1704471310455561e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>3.981453875245893</v>
+        <v>217.8736744925583</v>
       </c>
       <c r="B7">
-        <v>10.000036796395099</v>
+        <v>242.58241086844006</v>
       </c>
       <c r="C7">
-        <v>4.877472886707587</v>
+        <v>24.95715684440649</v>
       </c>
       <c r="D7">
-        <v>0.9999726108619308</v>
+        <v>0.9999721629146696</v>
       </c>
       <c r="E7">
-        <v>8.20449015544594e-6</v>
+        <v>-0.007676342824692908</v>
       </c>
       <c r="F7">
-        <v>0.00036018966531995626</v>
+        <v>0.0006316688820728805</v>
       </c>
       <c r="G7">
-        <v>0.0036043295135268225</v>
+        <v>-1.9453799856415447e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>4.628221320381994</v>
+        <v>217.54926104036758</v>
       </c>
       <c r="B8">
-        <v>10.00005434776752</v>
+        <v>240.23084334291983</v>
       </c>
       <c r="C8">
-        <v>4.882057738043404</v>
+        <v>26.167895082112764</v>
       </c>
       <c r="D8">
-        <v>0.9999821713421191</v>
+        <v>0.9999695221011593</v>
       </c>
       <c r="E8">
-        <v>-1.0154402459646177e-6</v>
+        <v>-0.007965002387520218</v>
       </c>
       <c r="F8">
-        <v>-7.090598432591845e-5</v>
+        <v>0.0010962931496124617</v>
       </c>
       <c r="G8">
-        <v>0.00255766378405798</v>
+        <v>-2.5477375148211727e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>5.045855945658361</v>
+        <v>216.60822994603419</v>
       </c>
       <c r="B9">
-        <v>9.88266630113806</v>
+        <v>237.98723859538464</v>
       </c>
       <c r="C9">
-        <v>4.882812839494935</v>
+        <v>27.076000463313193</v>
       </c>
       <c r="D9">
-        <v>0.9999918609741563</v>
+        <v>0.9999682001032707</v>
       </c>
       <c r="E9">
-        <v>0.0002742949187672818</v>
+        <v>-0.007558497698742151</v>
       </c>
       <c r="F9">
-        <v>-0.0003300011280251687</v>
+        <v>0.00316758710025434</v>
       </c>
       <c r="G9">
-        <v>-0.002609481240030512</v>
+        <v>-2.976918115634932e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>5.587619739066252</v>
+        <v>215.78640969579837</v>
       </c>
       <c r="B10">
-        <v>9.820072065512</v>
+        <v>235.6711903847398</v>
       </c>
       <c r="C10">
-        <v>4.885934171524463</v>
+        <v>27.80581571514462</v>
       </c>
       <c r="D10">
-        <v>0.9999964679761448</v>
+        <v>0.9999677046385246</v>
       </c>
       <c r="E10">
-        <v>-5.139470733387395e-5</v>
+        <v>-0.007785470884820496</v>
       </c>
       <c r="F10">
-        <v>-0.00035729997560886425</v>
+        <v>0.0027597619598279076</v>
       </c>
       <c r="G10">
-        <v>4.01431987834878e-5</v>
+        <v>-3.2640617250434195e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>6.056965366931687</v>
+        <v>215.48696814158166</v>
       </c>
       <c r="B11">
-        <v>9.768748916722108</v>
+        <v>233.21215904467826</v>
       </c>
       <c r="C11">
-        <v>4.889696845062832</v>
+        <v>28.327015612194895</v>
       </c>
       <c r="D11">
-        <v>1.0000002861086073</v>
+        <v>0.9999673856714704</v>
       </c>
       <c r="E11">
-        <v>2.788086661779225e-6</v>
+        <v>-0.00825336914252565</v>
       </c>
       <c r="F11">
-        <v>0.00012685546742212836</v>
+        <v>0.0010019006943817143</v>
       </c>
       <c r="G11">
-        <v>-0.0015844183477522666</v>
+        <v>-3.5860270619292714e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>215.401899302296</v>
+      </c>
+      <c r="B12">
+        <v>230.73007031663775</v>
+      </c>
+      <c r="C12">
+        <v>28.74162417175883</v>
+      </c>
+      <c r="D12">
+        <v>0.9999673272588404</v>
+      </c>
+      <c r="E12">
+        <v>-0.008324130242070753</v>
+      </c>
+      <c r="F12">
+        <v>0.00028199291570476007</v>
+      </c>
+      <c r="G12">
+        <v>-3.7045865164818884e-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>214.49123412520464</v>
+      </c>
+      <c r="B13">
+        <v>228.4154864206113</v>
+      </c>
+      <c r="C13">
+        <v>29.046887754497842</v>
+      </c>
+      <c r="D13">
+        <v>0.9999673289564005</v>
+      </c>
+      <c r="E13">
+        <v>-0.007736746820324618</v>
+      </c>
+      <c r="F13">
+        <v>0.0030409579766289795</v>
+      </c>
+      <c r="G13">
+        <v>-3.847983911351788e-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>213.90544924803575</v>
+      </c>
+      <c r="B14">
+        <v>225.99685220187226</v>
+      </c>
+      <c r="C14">
+        <v>29.27968569260369</v>
+      </c>
+      <c r="D14">
+        <v>0.9999673785127546</v>
+      </c>
+      <c r="E14">
+        <v>-0.008083478551196139</v>
+      </c>
+      <c r="F14">
+        <v>0.0019545950484056197</v>
+      </c>
+      <c r="G14">
+        <v>-3.9902413247283925e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>213.23656243139817</v>
+      </c>
+      <c r="B15">
+        <v>223.59969972235376</v>
+      </c>
+      <c r="C15">
+        <v>29.460511897344883</v>
+      </c>
+      <c r="D15">
+        <v>0.9999674301258402</v>
+      </c>
+      <c r="E15">
+        <v>-0.008005012308602321</v>
+      </c>
+      <c r="F15">
+        <v>0.0022304825411821015</v>
+      </c>
+      <c r="G15">
+        <v>-4.050397686880136e-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>212.49642173288873</v>
+      </c>
+      <c r="B16">
+        <v>221.22387190098473</v>
+      </c>
+      <c r="C16">
+        <v>29.59968557021688</v>
+      </c>
+      <c r="D16">
+        <v>0.9999674829409972</v>
+      </c>
+      <c r="E16">
+        <v>-0.007928435190029514</v>
+      </c>
+      <c r="F16">
+        <v>0.0024667649214886274</v>
+      </c>
+      <c r="G16">
+        <v>-4.093429086318503e-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>211.75637949651875</v>
+      </c>
+      <c r="B17">
+        <v>218.84834309610176</v>
+      </c>
+      <c r="C17">
+        <v>29.714898453815202</v>
+      </c>
+      <c r="D17">
+        <v>0.9999675183575587</v>
+      </c>
+      <c r="E17">
+        <v>-0.00792515056229455</v>
+      </c>
+      <c r="F17">
+        <v>0.002465713537274207</v>
+      </c>
+      <c r="G17">
+        <v>-4.122812964444866e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>211.4433750554119</v>
+      </c>
+      <c r="B18">
+        <v>216.38062181731527</v>
+      </c>
+      <c r="C18">
+        <v>29.79228966192382</v>
+      </c>
+      <c r="D18">
+        <v>0.9999675857096433</v>
+      </c>
+      <c r="E18">
+        <v>-0.00823798823908801</v>
+      </c>
+      <c r="F18">
+        <v>0.0010414980644622093</v>
+      </c>
+      <c r="G18">
+        <v>-4.179211247839215e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>211.13043736659114</v>
+      </c>
+      <c r="B19">
+        <v>213.91338574887493</v>
+      </c>
+      <c r="C19">
+        <v>29.850449300031396</v>
+      </c>
+      <c r="D19">
+        <v>0.9999676208018002</v>
+      </c>
+      <c r="E19">
+        <v>-0.008234516050324471</v>
+      </c>
+      <c r="F19">
+        <v>0.0010410303555878828</v>
+      </c>
+      <c r="G19">
+        <v>-4.2021439531737215e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>209.2737413362654</v>
+      </c>
+      <c r="B20">
+        <v>212.25973566855444</v>
+      </c>
+      <c r="C20">
+        <v>29.89490852457624</v>
+      </c>
+      <c r="D20">
+        <v>0.9999676327582854</v>
+      </c>
+      <c r="E20">
+        <v>-0.0055014365361857704</v>
+      </c>
+      <c r="F20">
+        <v>0.006173930475461611</v>
+      </c>
+      <c r="G20">
+        <v>-3.56051264172308e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>207.80167569082997</v>
+      </c>
+      <c r="B21">
+        <v>210.2564400560944</v>
+      </c>
+      <c r="C21">
+        <v>29.927461624129357</v>
+      </c>
+      <c r="D21">
+        <v>0.9999676612155974</v>
+      </c>
+      <c r="E21">
+        <v>-0.006666164472942231</v>
+      </c>
+      <c r="F21">
+        <v>0.004895448641842829</v>
+      </c>
+      <c r="G21">
+        <v>-3.921864217060671e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>205.99798208355605</v>
+      </c>
+      <c r="B22">
+        <v>208.54381837127212</v>
+      </c>
+      <c r="C22">
+        <v>29.990260573927387</v>
+      </c>
+      <c r="D22">
+        <v>0.9999677075275305</v>
+      </c>
+      <c r="E22">
+        <v>-0.005698785573334327</v>
+      </c>
+      <c r="F22">
+        <v>0.005998816444858751</v>
+      </c>
+      <c r="G22">
+        <v>-2.998624184389935e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>204.47072858508724</v>
+      </c>
+      <c r="B23">
+        <v>206.58448529525197</v>
+      </c>
+      <c r="C23">
+        <v>29.978106033158713</v>
+      </c>
+      <c r="D23">
+        <v>0.9999678198836656</v>
+      </c>
+      <c r="E23">
+        <v>-0.006527559797421635</v>
+      </c>
+      <c r="F23">
+        <v>0.0050850711642669326</v>
+      </c>
+      <c r="G23">
+        <v>-1.7054016713270616e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>202.71509660388745</v>
+      </c>
+      <c r="B24">
+        <v>204.80988785097637</v>
+      </c>
+      <c r="C24">
+        <v>29.982723690670404</v>
+      </c>
+      <c r="D24">
+        <v>0.9999707219954665</v>
+      </c>
+      <c r="E24">
+        <v>-0.006220213403067061</v>
+      </c>
+      <c r="F24">
+        <v>0.006137908617136456</v>
+      </c>
+      <c r="G24">
+        <v>0.00020254898035455794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>200.88103271359174</v>
+      </c>
+      <c r="B25">
+        <v>203.1307909872764</v>
+      </c>
+      <c r="C25">
+        <v>29.981269681530513</v>
+      </c>
+      <c r="D25">
+        <v>0.9999728827685518</v>
+      </c>
+      <c r="E25">
+        <v>-0.005304365419305246</v>
+      </c>
+      <c r="F25">
+        <v>0.005789087433497956</v>
+      </c>
+      <c r="G25">
+        <v>2.2146421493649832e-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>199.23305194508512</v>
+      </c>
+      <c r="B26">
+        <v>201.27453799744492</v>
+      </c>
+      <c r="C26">
+        <v>29.980281416368825</v>
+      </c>
+      <c r="D26">
+        <v>0.99996169076612</v>
+      </c>
+      <c r="E26">
+        <v>-0.006581624665720881</v>
+      </c>
+      <c r="F26">
+        <v>0.005831096131567747</v>
+      </c>
+      <c r="G26">
+        <v>-6.756097592110914e-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>197.48122701349195</v>
+      </c>
+      <c r="B27">
+        <v>199.51577067840384</v>
+      </c>
+      <c r="C27">
+        <v>29.98005356736122</v>
+      </c>
+      <c r="D27">
+        <v>0.9999617554614583</v>
+      </c>
+      <c r="E27">
+        <v>-0.006235800857297233</v>
+      </c>
+      <c r="F27">
+        <v>0.006198552937839626</v>
+      </c>
+      <c r="G27">
+        <v>-8.631652168844837e-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>196.20766051146694</v>
+      </c>
+      <c r="B28">
+        <v>197.38534100796343</v>
+      </c>
+      <c r="C28">
+        <v>29.980212747699195</v>
+      </c>
+      <c r="D28">
+        <v>0.9999616784113201</v>
+      </c>
+      <c r="E28">
+        <v>-0.007537010550531586</v>
+      </c>
+      <c r="F28">
+        <v>0.004494774484652369</v>
+      </c>
+      <c r="G28">
+        <v>-7.964280270056797e-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>195.16336821043046</v>
+      </c>
+      <c r="B29">
+        <v>195.13378830331845</v>
+      </c>
+      <c r="C29">
+        <v>29.98039421928223</v>
+      </c>
+      <c r="D29">
+        <v>0.9999616058130916</v>
+      </c>
+      <c r="E29">
+        <v>-0.00796158844780079</v>
+      </c>
+      <c r="F29">
+        <v>0.0036822459778588805</v>
+      </c>
+      <c r="G29">
+        <v>-7.25895939841492e-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>194.95974844336286</v>
+      </c>
+      <c r="B30">
+        <v>192.66070326021358</v>
+      </c>
+      <c r="C30">
+        <v>29.97944627497127</v>
+      </c>
+      <c r="D30">
+        <v>0.9999615941906986</v>
+      </c>
+      <c r="E30">
+        <v>-0.008701834901347663</v>
+      </c>
+      <c r="F30">
+        <v>0.0007066032993508339</v>
+      </c>
+      <c r="G30">
+        <v>-1.2995025797603318e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>194.26873610881108</v>
+      </c>
+      <c r="B31">
+        <v>190.27706577337335</v>
+      </c>
+      <c r="C31">
+        <v>29.979856573580566</v>
+      </c>
+      <c r="D31">
+        <v>0.9999617378407701</v>
+      </c>
+      <c r="E31">
+        <v>-0.008397538464218939</v>
+      </c>
+      <c r="F31">
+        <v>0.002424348718132206</v>
+      </c>
+      <c r="G31">
+        <v>-1.2499629600942347e-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>193.50903339614007</v>
+      </c>
+      <c r="B32">
+        <v>187.91442192079367</v>
+      </c>
+      <c r="C32">
+        <v>29.979275872056046</v>
+      </c>
+      <c r="D32">
+        <v>0.9999616706720199</v>
+      </c>
+      <c r="E32">
+        <v>-0.008333944171663669</v>
+      </c>
+      <c r="F32">
+        <v>0.002669637623057387</v>
+      </c>
+      <c r="G32">
+        <v>-1.0550324078800351e-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>191.87830870731472</v>
+      </c>
+      <c r="B33">
+        <v>186.04285054992192</v>
+      </c>
+      <c r="C33">
+        <v>29.980319189301575</v>
+      </c>
+      <c r="D33">
+        <v>0.9999616758184932</v>
+      </c>
+      <c r="E33">
+        <v>-0.0066362119401152525</v>
+      </c>
+      <c r="F33">
+        <v>0.005770226268265539</v>
+      </c>
+      <c r="G33">
+        <v>-6.817477237873964e-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>190.0542476837161</v>
+      </c>
+      <c r="B34">
+        <v>184.3590331980119</v>
+      </c>
+      <c r="C34">
+        <v>29.980478112939966</v>
+      </c>
+      <c r="D34">
+        <v>0.9999616850283575</v>
+      </c>
+      <c r="E34">
+        <v>-0.005977948648960714</v>
+      </c>
+      <c r="F34">
+        <v>0.0064627272653590825</v>
+      </c>
+      <c r="G34">
+        <v>-6.532859050504805e-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>188.07406154432485</v>
+      </c>
+      <c r="B35">
+        <v>182.86179696826505</v>
+      </c>
+      <c r="C35">
+        <v>29.978980880785333</v>
+      </c>
+      <c r="D35">
+        <v>0.9999616871628043</v>
+      </c>
+      <c r="E35">
+        <v>-0.005322190282664798</v>
+      </c>
+      <c r="F35">
+        <v>0.00702434812138624</v>
+      </c>
+      <c r="G35">
+        <v>-6.618834890267468e-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>186.56511240119116</v>
+      </c>
+      <c r="B36">
+        <v>180.88944699149644</v>
+      </c>
+      <c r="C36">
+        <v>29.98139797030519</v>
+      </c>
+      <c r="D36">
+        <v>0.9999635709946232</v>
+      </c>
+      <c r="E36">
+        <v>-0.006873905702769546</v>
+      </c>
+      <c r="F36">
+        <v>0.005247175796630787</v>
+      </c>
+      <c r="G36">
+        <v>-2.286474532399381e-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>184.75276576821506</v>
+      </c>
+      <c r="B37">
+        <v>179.19316023047733</v>
+      </c>
+      <c r="C37">
+        <v>29.979641447312115</v>
+      </c>
+      <c r="D37">
+        <v>0.9999616928698494</v>
+      </c>
+      <c r="E37">
+        <v>-0.006021302255941962</v>
+      </c>
+      <c r="F37">
+        <v>0.0064202460968225995</v>
+      </c>
+      <c r="G37">
+        <v>-6.531112963692112e-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>182.7972742653837</v>
+      </c>
+      <c r="B38">
+        <v>177.66369827593374</v>
+      </c>
+      <c r="C38">
+        <v>29.98086396229764</v>
+      </c>
+      <c r="D38">
+        <v>0.9999616809458268</v>
+      </c>
+      <c r="E38">
+        <v>-0.005435737960208736</v>
+      </c>
+      <c r="F38">
+        <v>0.006935562249265527</v>
+      </c>
+      <c r="G38">
+        <v>-6.578785702334557e-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>180.66727848783205</v>
+      </c>
+      <c r="B39">
+        <v>176.388279845668</v>
+      </c>
+      <c r="C39">
+        <v>29.98046548483901</v>
+      </c>
+      <c r="D39">
+        <v>0.9999616197024376</v>
+      </c>
+      <c r="E39">
+        <v>-0.004543327990001991</v>
+      </c>
+      <c r="F39">
+        <v>0.007570619902032221</v>
+      </c>
+      <c r="G39">
+        <v>-4.938660464454334e-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>178.5697719301864</v>
+      </c>
+      <c r="B40">
+        <v>175.060178486701</v>
+      </c>
+      <c r="C40">
+        <v>29.978909703825835</v>
+      </c>
+      <c r="D40">
+        <v>0.9999616878808617</v>
+      </c>
+      <c r="E40">
+        <v>-0.004726058889048028</v>
+      </c>
+      <c r="F40">
+        <v>0.00744772137637659</v>
+      </c>
+      <c r="G40">
+        <v>-6.932433940302185e-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>176.77066174664006</v>
+      </c>
+      <c r="B41">
+        <v>173.34796754786706</v>
+      </c>
+      <c r="C41">
+        <v>29.98094345042133</v>
+      </c>
+      <c r="D41">
+        <v>0.9999635747867515</v>
+      </c>
+      <c r="E41">
+        <v>-0.005984083751743706</v>
+      </c>
+      <c r="F41">
+        <v>0.006274814216389032</v>
+      </c>
+      <c r="G41">
+        <v>-2.4985686708481202e-5</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States1.xlsx
+++ b/src/Quadrotor_States1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,922 +428,1842 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>221.18100781869654</v>
+        <v>290.4443327624497</v>
       </c>
       <c r="B2">
-        <v>248.65027019548796</v>
+        <v>249.33327413044017</v>
       </c>
       <c r="C2">
-        <v>12.039667294867701</v>
+        <v>12.808389767467744</v>
       </c>
       <c r="D2">
-        <v>0.9999821987688595</v>
+        <v>0.9999988248130242</v>
       </c>
       <c r="E2">
-        <v>-0.0046957997055400115</v>
+        <v>-0.0012549818648714438</v>
       </c>
       <c r="F2">
-        <v>-0.004109959780787532</v>
+        <v>-0.000850707905868066</v>
       </c>
       <c r="G2">
-        <v>-6.459956137019816e-6</v>
+        <v>-0.000285385511330217</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>220.56627883954286</v>
+        <v>290.30385627757624</v>
       </c>
       <c r="B3">
-        <v>248.4221160237972</v>
+        <v>250.1876894219965</v>
       </c>
       <c r="C3">
-        <v>15.221164094879283</v>
+        <v>16.575382461245546</v>
       </c>
       <c r="D3">
-        <v>1.0000001741968176</v>
+        <v>0.99999005433531</v>
       </c>
       <c r="E3">
-        <v>-0.00020847873022889586</v>
+        <v>0.0047671784225090325</v>
       </c>
       <c r="F3">
-        <v>0.00019580075581956084</v>
+        <v>-0.0005855018029706402</v>
       </c>
       <c r="G3">
-        <v>-0.00035032889254501995</v>
+        <v>-2.211820715509084e-6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>220.03405821460885</v>
+        <v>290.75438077041855</v>
       </c>
       <c r="B4">
-        <v>247.9123435744799</v>
+        <v>251.29141141067566</v>
       </c>
       <c r="C4">
-        <v>18.50571128918559</v>
+        <v>20.02201848519711</v>
       </c>
       <c r="D4">
-        <v>1.0000033203192293</v>
+        <v>0.9999942646184251</v>
       </c>
       <c r="E4">
-        <v>0.00017696352110831116</v>
+        <v>0.003757816918738393</v>
       </c>
       <c r="F4">
-        <v>-3.4329814445032943e-6</v>
+        <v>-0.0011851962167748786</v>
       </c>
       <c r="G4">
-        <v>-0.0008825267206975216</v>
+        <v>-0.003850098310865027</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>219.158609641191</v>
+        <v>291.1330612912565</v>
       </c>
       <c r="B5">
-        <v>246.5363563736462</v>
+        <v>252.47145968140143</v>
       </c>
       <c r="C5">
-        <v>21.212148296490977</v>
+        <v>23.500451365149736</v>
       </c>
       <c r="D5">
-        <v>0.9999852070974644</v>
+        <v>0.9999971800240665</v>
       </c>
       <c r="E5">
-        <v>-0.004818574756352868</v>
+        <v>0.002384684082693135</v>
       </c>
       <c r="F5">
-        <v>0.0030648987186341634</v>
+        <v>-0.00039373181126522164</v>
       </c>
       <c r="G5">
-        <v>-5.325466486794458e-6</v>
+        <v>0.004091463529853791</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>218.05963608776602</v>
+        <v>291.21858671416106</v>
       </c>
       <c r="B6">
-        <v>244.83465891796195</v>
+        <v>253.7423729803886</v>
       </c>
       <c r="C6">
-        <v>23.351492491895407</v>
+        <v>26.99497323531043</v>
       </c>
       <c r="D6">
-        <v>0.9999774264370134</v>
+        <v>0.999998973737095</v>
       </c>
       <c r="E6">
-        <v>-0.005853593644597631</v>
+        <v>-3.942291458337209e-5</v>
       </c>
       <c r="F6">
-        <v>0.0037788051782304067</v>
+        <v>5.53807926428701e-5</v>
       </c>
       <c r="G6">
-        <v>-1.1704471310455561e-5</v>
+        <v>-0.0009374154792627186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>217.8736744925583</v>
+        <v>291.0030826096052</v>
       </c>
       <c r="B7">
-        <v>242.58241086844006</v>
+        <v>256.31579992334775</v>
       </c>
       <c r="C7">
-        <v>24.95715684440649</v>
+        <v>28.476122123482096</v>
       </c>
       <c r="D7">
-        <v>0.9999721629146696</v>
+        <v>0.9999823721102249</v>
       </c>
       <c r="E7">
-        <v>-0.007676342824692908</v>
+        <v>0.006244620822791157</v>
       </c>
       <c r="F7">
-        <v>0.0006316688820728805</v>
+        <v>0.0014496596436656545</v>
       </c>
       <c r="G7">
-        <v>-1.9453799856415447e-5</v>
+        <v>1.8061727073098222e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>217.54926104036758</v>
+        <v>292.38829828446353</v>
       </c>
       <c r="B8">
-        <v>240.23084334291983</v>
+        <v>258.759393119411</v>
       </c>
       <c r="C8">
-        <v>26.167895082112764</v>
+        <v>29.161541297482568</v>
       </c>
       <c r="D8">
-        <v>0.9999695221011593</v>
+        <v>0.9999822708316203</v>
       </c>
       <c r="E8">
-        <v>-0.007965002387520218</v>
+        <v>0.004729731363453546</v>
       </c>
       <c r="F8">
-        <v>0.0010962931496124617</v>
+        <v>-0.0041779979943538</v>
       </c>
       <c r="G8">
-        <v>-2.5477375148211727e-5</v>
+        <v>-3.527376176517762e-7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>216.60822994603419</v>
+        <v>290.91251317170844</v>
       </c>
       <c r="B9">
-        <v>237.98723859538464</v>
+        <v>261.12510282238026</v>
       </c>
       <c r="C9">
-        <v>27.076000463313193</v>
+        <v>29.51287685220169</v>
       </c>
       <c r="D9">
-        <v>0.9999682001032707</v>
+        <v>0.9999764026576299</v>
       </c>
       <c r="E9">
-        <v>-0.007558497698742151</v>
+        <v>0.0034201536683374115</v>
       </c>
       <c r="F9">
-        <v>0.00316758710025434</v>
+        <v>0.0063515235774197765</v>
       </c>
       <c r="G9">
-        <v>-2.976918115634932e-5</v>
+        <v>-1.2095752657234404e-7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>215.78640969579837</v>
+        <v>288.7978189127317</v>
       </c>
       <c r="B10">
-        <v>235.6711903847398</v>
+        <v>263.0248762250979</v>
       </c>
       <c r="C10">
-        <v>27.80581571514462</v>
+        <v>29.70289262966395</v>
       </c>
       <c r="D10">
-        <v>0.9999677046385246</v>
+        <v>0.9999767930004853</v>
       </c>
       <c r="E10">
-        <v>-0.007785470884820496</v>
+        <v>0.001079596735679598</v>
       </c>
       <c r="F10">
-        <v>0.0027597619598279076</v>
+        <v>0.007053216332361855</v>
       </c>
       <c r="G10">
-        <v>-3.2640617250434195e-5</v>
+        <v>-8.181591718848768e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>215.48696814158166</v>
+        <v>286.3498000495625</v>
       </c>
       <c r="B11">
-        <v>233.21215904467826</v>
+        <v>264.6737448441783</v>
       </c>
       <c r="C11">
-        <v>28.327015612194895</v>
+        <v>29.795392922226206</v>
       </c>
       <c r="D11">
-        <v>0.9999673856714704</v>
+        <v>0.9999805036375191</v>
       </c>
       <c r="E11">
-        <v>-0.00825336914252565</v>
+        <v>-1.1070810936996311e-5</v>
       </c>
       <c r="F11">
-        <v>0.0010019006943817143</v>
+        <v>0.006573100359324489</v>
       </c>
       <c r="G11">
-        <v>-3.5860270619292714e-5</v>
+        <v>-9.682232604788574e-6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>215.401899302296</v>
+        <v>283.900069195451</v>
       </c>
       <c r="B12">
-        <v>230.73007031663775</v>
+        <v>266.6346440047083</v>
       </c>
       <c r="C12">
-        <v>28.74162417175883</v>
+        <v>29.8287975643471</v>
       </c>
       <c r="D12">
-        <v>0.9999673272588404</v>
+        <v>0.9999879938055785</v>
       </c>
       <c r="E12">
-        <v>-0.008324130242070753</v>
+        <v>0.0010584020066173763</v>
       </c>
       <c r="F12">
-        <v>0.00028199291570476007</v>
+        <v>0.005132792140521644</v>
       </c>
       <c r="G12">
-        <v>-3.7045865164818884e-5</v>
+        <v>-5.10362324439414e-6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>214.49123412520464</v>
+        <v>281.1815321946552</v>
       </c>
       <c r="B13">
-        <v>228.4154864206113</v>
+        <v>268.3816071788868</v>
       </c>
       <c r="C13">
-        <v>29.046887754497842</v>
+        <v>29.839769864210623</v>
       </c>
       <c r="D13">
-        <v>0.9999673289564005</v>
+        <v>0.999989655841216</v>
       </c>
       <c r="E13">
-        <v>-0.007736746820324618</v>
+        <v>8.090222473463179e-5</v>
       </c>
       <c r="F13">
-        <v>0.0030409579766289795</v>
+        <v>0.0048827289629651115</v>
       </c>
       <c r="G13">
-        <v>-3.847983911351788e-5</v>
+        <v>-5.134737207704038e-6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>213.90544924803575</v>
+        <v>279.07407605286704</v>
       </c>
       <c r="B14">
-        <v>225.99685220187226</v>
+        <v>270.8401460018382</v>
       </c>
       <c r="C14">
-        <v>29.27968569260369</v>
+        <v>29.839735542602025</v>
       </c>
       <c r="D14">
-        <v>0.9999673785127546</v>
+        <v>0.9999918029680502</v>
       </c>
       <c r="E14">
-        <v>-0.008083478551196139</v>
+        <v>-0.0005258537435405054</v>
       </c>
       <c r="F14">
-        <v>0.0019545950484056197</v>
+        <v>-7.099959841123829e-5</v>
       </c>
       <c r="G14">
-        <v>-3.9902413247283925e-5</v>
+        <v>0.0006401284942351893</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>213.23656243139817</v>
+        <v>277.1404175445158</v>
       </c>
       <c r="B15">
-        <v>223.59969972235376</v>
+        <v>273.52212363394307</v>
       </c>
       <c r="C15">
-        <v>29.460511897344883</v>
+        <v>29.829593576819242</v>
       </c>
       <c r="D15">
-        <v>0.9999674301258402</v>
+        <v>0.9999983503338831</v>
       </c>
       <c r="E15">
-        <v>-0.008005012308602321</v>
+        <v>-2.5693618269463105e-5</v>
       </c>
       <c r="F15">
-        <v>0.0022304825411821015</v>
+        <v>9.77288143526037e-5</v>
       </c>
       <c r="G15">
-        <v>-4.050397686880136e-5</v>
+        <v>-0.0007935241397620831</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>212.49642173288873</v>
+        <v>274.5286287322173</v>
       </c>
       <c r="B16">
-        <v>221.22387190098473</v>
+        <v>275.68141424373414</v>
       </c>
       <c r="C16">
-        <v>29.59968557021688</v>
+        <v>29.821949658799138</v>
       </c>
       <c r="D16">
-        <v>0.9999674829409972</v>
+        <v>0.9999986394194444</v>
       </c>
       <c r="E16">
-        <v>-0.007928435190029514</v>
+        <v>8.720398307026209e-5</v>
       </c>
       <c r="F16">
-        <v>0.0024667649214886274</v>
+        <v>0.0008812057916224779</v>
       </c>
       <c r="G16">
-        <v>-4.093429086318503e-5</v>
+        <v>5.081659168747019e-5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>211.75637949651875</v>
+        <v>272.43117646753757</v>
       </c>
       <c r="B17">
-        <v>218.84834309610176</v>
+        <v>278.4119208755016</v>
       </c>
       <c r="C17">
-        <v>29.714898453815202</v>
+        <v>29.814970083552247</v>
       </c>
       <c r="D17">
-        <v>0.9999675183575587</v>
+        <v>0.9999979283789284</v>
       </c>
       <c r="E17">
-        <v>-0.00792515056229455</v>
+        <v>-0.0009804415350086859</v>
       </c>
       <c r="F17">
-        <v>0.002465713537274207</v>
+        <v>-0.00010773193716090674</v>
       </c>
       <c r="G17">
-        <v>-4.122812964444866e-5</v>
+        <v>-0.0005099124525621249</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>211.4433750554119</v>
+        <v>269.93300772356747</v>
       </c>
       <c r="B18">
-        <v>216.38062181731527</v>
+        <v>280.8572720641566</v>
       </c>
       <c r="C18">
-        <v>29.79228966192382</v>
+        <v>29.80912771031663</v>
       </c>
       <c r="D18">
-        <v>0.9999675857096433</v>
+        <v>1.000000118653754</v>
       </c>
       <c r="E18">
-        <v>-0.00823798823908801</v>
+        <v>-0.00035030086468944874</v>
       </c>
       <c r="F18">
-        <v>0.0010414980644622093</v>
+        <v>-0.000494469744862167</v>
       </c>
       <c r="G18">
-        <v>-4.179211247839215e-5</v>
+        <v>-0.0015386228838135273</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>211.13043736659114</v>
+        <v>269.92254309640765</v>
       </c>
       <c r="B19">
-        <v>213.91338574887493</v>
+        <v>284.0801710163546</v>
       </c>
       <c r="C19">
-        <v>29.850449300031396</v>
+        <v>29.848961891852305</v>
       </c>
       <c r="D19">
-        <v>0.9999676208018002</v>
+        <v>0.9999723708807132</v>
       </c>
       <c r="E19">
-        <v>-0.008234516050324471</v>
+        <v>0.003139812610665487</v>
       </c>
       <c r="F19">
-        <v>0.0010410303555878828</v>
+        <v>-0.007074081848338966</v>
       </c>
       <c r="G19">
-        <v>-4.2021439531737215e-5</v>
+        <v>-2.1933309583778247e-6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>209.2737413362654</v>
+        <v>270.11536544540485</v>
       </c>
       <c r="B20">
-        <v>212.25973566855444</v>
+        <v>287.37750916418196</v>
       </c>
       <c r="C20">
-        <v>29.89490852457624</v>
+        <v>29.874262774234456</v>
       </c>
       <c r="D20">
-        <v>0.9999676327582854</v>
+        <v>0.9999798886525662</v>
       </c>
       <c r="E20">
-        <v>-0.0055014365361857704</v>
+        <v>0.0026632810931267515</v>
       </c>
       <c r="F20">
-        <v>0.006173930475461611</v>
+        <v>-0.006120245285358621</v>
       </c>
       <c r="G20">
-        <v>-3.56051264172308e-5</v>
+        <v>-3.930543493094128e-6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>207.80167569082997</v>
+        <v>270.67819247633696</v>
       </c>
       <c r="B21">
-        <v>210.2564400560944</v>
+        <v>290.66122363930043</v>
       </c>
       <c r="C21">
-        <v>29.927461624129357</v>
+        <v>29.88129707837385</v>
       </c>
       <c r="D21">
-        <v>0.9999676612155974</v>
+        <v>0.9999822732824029</v>
       </c>
       <c r="E21">
-        <v>-0.006666164472942231</v>
+        <v>0.0020037800326659933</v>
       </c>
       <c r="F21">
-        <v>0.004895448641842829</v>
+        <v>-0.0059612172246149625</v>
       </c>
       <c r="G21">
-        <v>-3.921864217060671e-5</v>
+        <v>-4.7967976641570615e-6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>205.99798208355605</v>
+        <v>271.71299110059124</v>
       </c>
       <c r="B22">
-        <v>208.54381837127212</v>
+        <v>293.8268779199918</v>
       </c>
       <c r="C22">
-        <v>29.990260573927387</v>
+        <v>29.884741978221747</v>
       </c>
       <c r="D22">
-        <v>0.9999677075275305</v>
+        <v>0.999982367866917</v>
       </c>
       <c r="E22">
-        <v>-0.005698785573334327</v>
+        <v>0.0011380544115770887</v>
       </c>
       <c r="F22">
-        <v>0.005998816444858751</v>
+        <v>-0.006169174215911281</v>
       </c>
       <c r="G22">
-        <v>-2.998624184389935e-5</v>
+        <v>-5.743632863418556e-6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>204.47072858508724</v>
+        <v>273.6009968302812</v>
       </c>
       <c r="B23">
-        <v>206.58448529525197</v>
+        <v>296.36671190121393</v>
       </c>
       <c r="C23">
-        <v>29.978106033158713</v>
+        <v>29.899702263285867</v>
       </c>
       <c r="D23">
-        <v>0.9999678198836656</v>
+        <v>0.9999730451597223</v>
       </c>
       <c r="E23">
-        <v>-0.006527559797421635</v>
+        <v>-0.0012348344551370895</v>
       </c>
       <c r="F23">
-        <v>0.0050850711642669326</v>
+        <v>-0.007564254594901416</v>
       </c>
       <c r="G23">
-        <v>-1.7054016713270616e-5</v>
+        <v>-1.096865770874155e-5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>202.71509660388745</v>
+        <v>275.0924776723406</v>
       </c>
       <c r="B24">
-        <v>204.80988785097637</v>
+        <v>299.46325692275406</v>
       </c>
       <c r="C24">
-        <v>29.982723690670404</v>
+        <v>29.88193010718806</v>
       </c>
       <c r="D24">
-        <v>0.9999707219954665</v>
+        <v>0.9999905510359933</v>
       </c>
       <c r="E24">
-        <v>-0.006220213403067061</v>
+        <v>0.0009455016422484334</v>
       </c>
       <c r="F24">
-        <v>0.006137908617136456</v>
+        <v>-0.0045792385102164605</v>
       </c>
       <c r="G24">
-        <v>0.00020254898035455794</v>
+        <v>-4.005731736646407e-6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>200.88103271359174</v>
+        <v>275.91885265566964</v>
       </c>
       <c r="B25">
-        <v>203.1307909872764</v>
+        <v>302.8308984155398</v>
       </c>
       <c r="C25">
-        <v>29.981269681530513</v>
+        <v>29.85633538745753</v>
       </c>
       <c r="D25">
-        <v>0.9999728827685518</v>
+        <v>1.0000025220985993</v>
       </c>
       <c r="E25">
-        <v>-0.005304365419305246</v>
+        <v>-0.0005822438757762653</v>
       </c>
       <c r="F25">
-        <v>0.005789087433497956</v>
+        <v>0.0005451401388469582</v>
       </c>
       <c r="G25">
-        <v>2.2146421493649832e-5</v>
+        <v>0.005121980300535263</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>199.23305194508512</v>
+        <v>278.38576231820974</v>
       </c>
       <c r="B26">
-        <v>201.27453799744492</v>
+        <v>305.00171370165583</v>
       </c>
       <c r="C26">
-        <v>29.980281416368825</v>
+        <v>29.867728671350058</v>
       </c>
       <c r="D26">
-        <v>0.99996169076612</v>
+        <v>0.9999775535736694</v>
       </c>
       <c r="E26">
-        <v>-0.006581624665720881</v>
+        <v>-0.0027745708918815526</v>
       </c>
       <c r="F26">
-        <v>0.005831096131567747</v>
+        <v>-0.00646171365514162</v>
       </c>
       <c r="G26">
-        <v>-6.756097592110914e-6</v>
+        <v>-1.2281705710895877e-5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>197.48122701349195</v>
+        <v>281.1967770380676</v>
       </c>
       <c r="B27">
-        <v>199.51577067840384</v>
+        <v>306.56890602728225</v>
       </c>
       <c r="C27">
-        <v>29.98005356736122</v>
+        <v>29.891021517956094</v>
       </c>
       <c r="D27">
-        <v>0.9999617554614583</v>
+        <v>0.9999752478287434</v>
       </c>
       <c r="E27">
-        <v>-0.006235800857297233</v>
+        <v>-0.00414723971912659</v>
       </c>
       <c r="F27">
-        <v>0.006198552937839626</v>
+        <v>-0.006089218843101381</v>
       </c>
       <c r="G27">
-        <v>-8.631652168844837e-6</v>
+        <v>-1.6586020764844773e-5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>196.20766051146694</v>
+        <v>283.9508946489773</v>
       </c>
       <c r="B28">
-        <v>197.38534100796343</v>
+        <v>308.6394431948503</v>
       </c>
       <c r="C28">
-        <v>29.980212747699195</v>
+        <v>29.88005959705094</v>
       </c>
       <c r="D28">
-        <v>0.9999616784113201</v>
+        <v>0.9999899261096848</v>
       </c>
       <c r="E28">
-        <v>-0.007537010550531586</v>
+        <v>-0.0015197747262598686</v>
       </c>
       <c r="F28">
-        <v>0.004494774484652369</v>
+        <v>-0.004572311581926994</v>
       </c>
       <c r="G28">
-        <v>-7.964280270056797e-6</v>
+        <v>-5.281507495780867e-6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>195.16336821043046</v>
+        <v>286.3495499340178</v>
       </c>
       <c r="B29">
-        <v>195.13378830331845</v>
+        <v>311.1945452623212</v>
       </c>
       <c r="C29">
-        <v>29.98039421928223</v>
+        <v>29.855383419756855</v>
       </c>
       <c r="D29">
-        <v>0.9999616058130916</v>
+        <v>1.000000227985152</v>
       </c>
       <c r="E29">
-        <v>-0.00796158844780079</v>
+        <v>6.93412129892886e-5</v>
       </c>
       <c r="F29">
-        <v>0.0036822459778588805</v>
+        <v>-0.0003339923849161758</v>
       </c>
       <c r="G29">
-        <v>-7.25895939841492e-6</v>
+        <v>7.708348806497139e-5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>194.95974844336286</v>
+        <v>289.1515808093137</v>
       </c>
       <c r="B30">
-        <v>192.66070326021358</v>
+        <v>313.352686917378</v>
       </c>
       <c r="C30">
-        <v>29.97944627497127</v>
+        <v>29.840089654902656</v>
       </c>
       <c r="D30">
-        <v>0.9999615941906986</v>
+        <v>0.9999941728419856</v>
       </c>
       <c r="E30">
-        <v>-0.008701834901347663</v>
+        <v>-0.0011160875430389567</v>
       </c>
       <c r="F30">
-        <v>0.0007066032993508339</v>
+        <v>-0.0036595571055869345</v>
       </c>
       <c r="G30">
-        <v>-1.2995025797603318e-5</v>
+        <v>-8.40867179832165e-5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>194.26873610881108</v>
+        <v>291.4130951421629</v>
       </c>
       <c r="B31">
-        <v>190.27706577337335</v>
+        <v>316.13914163234904</v>
       </c>
       <c r="C31">
-        <v>29.979856573580566</v>
+        <v>29.821444455591738</v>
       </c>
       <c r="D31">
-        <v>0.9999617378407701</v>
+        <v>1.0000014623802103</v>
       </c>
       <c r="E31">
-        <v>-0.008397538464218939</v>
+        <v>-0.0010571096612971528</v>
       </c>
       <c r="F31">
-        <v>0.002424348718132206</v>
+        <v>0.0004603274774655253</v>
       </c>
       <c r="G31">
-        <v>-1.2499629600942347e-5</v>
+        <v>0.0014510387012982176</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>193.50903339614007</v>
+        <v>294.27478839805394</v>
       </c>
       <c r="B32">
-        <v>187.91442192079367</v>
+        <v>318.33879030062764</v>
       </c>
       <c r="C32">
-        <v>29.979275872056046</v>
+        <v>29.81871007889095</v>
       </c>
       <c r="D32">
-        <v>0.9999616706720199</v>
+        <v>0.9999991454973478</v>
       </c>
       <c r="E32">
-        <v>-0.008333944171663669</v>
+        <v>-0.00029856749814241226</v>
       </c>
       <c r="F32">
-        <v>0.002669637623057387</v>
+        <v>-0.0008389937228941941</v>
       </c>
       <c r="G32">
-        <v>-1.0550324078800351e-5</v>
+        <v>-0.00012081729682715326</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>191.87830870731472</v>
+        <v>296.4761668901636</v>
       </c>
       <c r="B33">
-        <v>186.04285054992192</v>
+        <v>321.22335056139434</v>
       </c>
       <c r="C33">
-        <v>29.980319189301575</v>
+        <v>29.810451254224024</v>
       </c>
       <c r="D33">
-        <v>0.9999616758184932</v>
+        <v>1.0000004772674822</v>
       </c>
       <c r="E33">
-        <v>-0.0066362119401152525</v>
+        <v>-0.0031372481237424994</v>
       </c>
       <c r="F33">
-        <v>0.005770226268265539</v>
+        <v>-0.0005800889523653047</v>
       </c>
       <c r="G33">
-        <v>-6.817477237873964e-6</v>
+        <v>-0.002600083937985189</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>190.0542476837161</v>
+        <v>299.7203236098812</v>
       </c>
       <c r="B34">
-        <v>184.3590331980119</v>
+        <v>322.8759664877311</v>
       </c>
       <c r="C34">
-        <v>29.980478112939966</v>
+        <v>29.81608227950195</v>
       </c>
       <c r="D34">
-        <v>0.9999616850283575</v>
+        <v>0.9999912590687857</v>
       </c>
       <c r="E34">
-        <v>-0.005977948648960714</v>
+        <v>-0.0030035022644417666</v>
       </c>
       <c r="F34">
-        <v>0.0064627272653590825</v>
+        <v>-0.0033591385865112387</v>
       </c>
       <c r="G34">
-        <v>-6.532859050504805e-6</v>
+        <v>-4.983058782222152e-6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>188.07406154432485</v>
+        <v>302.2953397572981</v>
       </c>
       <c r="B35">
-        <v>182.86179696826505</v>
+        <v>325.54303816024515</v>
       </c>
       <c r="C35">
-        <v>29.978980880785333</v>
+        <v>29.812610565842323</v>
       </c>
       <c r="D35">
-        <v>0.9999616871628043</v>
+        <v>1.000001432802575</v>
       </c>
       <c r="E35">
-        <v>-0.005322190282664798</v>
+        <v>-0.0011801766903037749</v>
       </c>
       <c r="F35">
-        <v>0.00702434812138624</v>
+        <v>0.0002464239699901913</v>
       </c>
       <c r="G35">
-        <v>-6.618834890267468e-6</v>
+        <v>0.00047169979921008875</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>186.56511240119116</v>
+        <v>305.3800458945129</v>
       </c>
       <c r="B36">
-        <v>180.88944699149644</v>
+        <v>327.6273008922899</v>
       </c>
       <c r="C36">
-        <v>29.98139797030519</v>
+        <v>29.811218251537987</v>
       </c>
       <c r="D36">
-        <v>0.9999635709946232</v>
+        <v>1.0000002171279239</v>
       </c>
       <c r="E36">
-        <v>-0.006873905702769546</v>
+        <v>-0.0002275103128989395</v>
       </c>
       <c r="F36">
-        <v>0.005247175796630787</v>
+        <v>-0.0004287670514743503</v>
       </c>
       <c r="G36">
-        <v>-2.286474532399381e-5</v>
+        <v>-9.410440818346299e-5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>184.75276576821506</v>
+        <v>308.0405039228963</v>
       </c>
       <c r="B37">
-        <v>179.19316023047733</v>
+        <v>330.28661348470365</v>
       </c>
       <c r="C37">
-        <v>29.979641447312115</v>
+        <v>29.804140754651762</v>
       </c>
       <c r="D37">
-        <v>0.9999616928698494</v>
+        <v>1.000001313177101</v>
       </c>
       <c r="E37">
-        <v>-0.006021302255941962</v>
+        <v>-0.0012041310225704182</v>
       </c>
       <c r="F37">
-        <v>0.0064202460968225995</v>
+        <v>4.4199277122911934e-5</v>
       </c>
       <c r="G37">
-        <v>-6.531112963692112e-6</v>
+        <v>0.0003005714881530958</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>182.7972742653837</v>
+        <v>311.2217130424704</v>
       </c>
       <c r="B38">
-        <v>177.66369827593374</v>
+        <v>332.30055290811566</v>
       </c>
       <c r="C38">
-        <v>29.98086396229764</v>
+        <v>29.80592883049882</v>
       </c>
       <c r="D38">
-        <v>0.9999616809458268</v>
+        <v>1.0000001214128222</v>
       </c>
       <c r="E38">
-        <v>-0.005435737960208736</v>
+        <v>-0.0003316545578148243</v>
       </c>
       <c r="F38">
-        <v>0.006935562249265527</v>
+        <v>-0.00046911799195058153</v>
       </c>
       <c r="G38">
-        <v>-6.578785702334557e-6</v>
+        <v>-0.00011201236735886917</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>180.66727848783205</v>
+        <v>314.6707038254584</v>
       </c>
       <c r="B39">
-        <v>176.388279845668</v>
+        <v>333.6693259274026</v>
       </c>
       <c r="C39">
-        <v>29.98046548483901</v>
+        <v>29.81702695316202</v>
       </c>
       <c r="D39">
-        <v>0.9999616197024376</v>
+        <v>0.9999899162860962</v>
       </c>
       <c r="E39">
-        <v>-0.004543327990001991</v>
+        <v>-0.003533994942495586</v>
       </c>
       <c r="F39">
-        <v>0.007570619902032221</v>
+        <v>-0.002520268516865725</v>
       </c>
       <c r="G39">
-        <v>-4.938660464454334e-6</v>
+        <v>0.0001315164470552512</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>178.5697719301864</v>
+        <v>317.82677228916964</v>
       </c>
       <c r="B40">
-        <v>175.060178486701</v>
+        <v>335.79951453457784</v>
       </c>
       <c r="C40">
-        <v>29.978909703825835</v>
+        <v>29.80667645671332</v>
       </c>
       <c r="D40">
-        <v>0.9999616878808617</v>
+        <v>1.0000011539364357</v>
       </c>
       <c r="E40">
-        <v>-0.004726058889048028</v>
+        <v>-0.00011638528888417097</v>
       </c>
       <c r="F40">
-        <v>0.00744772137637659</v>
+        <v>0.0009469074611620817</v>
       </c>
       <c r="G40">
-        <v>-6.932433940302185e-6</v>
+        <v>-1.0041844777090208e-6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>176.77066174664006</v>
+        <v>319.52680622463663</v>
       </c>
       <c r="B41">
-        <v>173.34796754786706</v>
+        <v>339.0146723095341</v>
       </c>
       <c r="C41">
-        <v>29.98094345042133</v>
+        <v>29.827384697741515</v>
       </c>
       <c r="D41">
-        <v>0.9999635747867515</v>
+        <v>0.9999853873735106</v>
       </c>
       <c r="E41">
-        <v>-0.005984083751743706</v>
+        <v>0.0037722972178127613</v>
       </c>
       <c r="F41">
-        <v>0.006274814216389032</v>
+        <v>0.004344212667361631</v>
       </c>
       <c r="G41">
-        <v>-2.4985686708481202e-5</v>
+        <v>-2.3243633252907246e-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>322.22477008757</v>
+      </c>
+      <c r="B42">
+        <v>341.6749883682385</v>
+      </c>
+      <c r="C42">
+        <v>29.82105568395251</v>
+      </c>
+      <c r="D42">
+        <v>1.0000012122620856</v>
+      </c>
+      <c r="E42">
+        <v>-0.0011387125037531248</v>
+      </c>
+      <c r="F42">
+        <v>8.582222567430291e-5</v>
+      </c>
+      <c r="G42">
+        <v>0.0001550991156773905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>325.5777490043459</v>
+      </c>
+      <c r="B43">
+        <v>343.30945323116</v>
+      </c>
+      <c r="C43">
+        <v>29.825006183298523</v>
+      </c>
+      <c r="D43">
+        <v>0.9999929417182347</v>
+      </c>
+      <c r="E43">
+        <v>-0.0031334622643621668</v>
+      </c>
+      <c r="F43">
+        <v>-0.0027095453290771083</v>
+      </c>
+      <c r="G43">
+        <v>-0.0003082880296487421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>328.48052128872735</v>
+      </c>
+      <c r="B44">
+        <v>345.7877848968993</v>
+      </c>
+      <c r="C44">
+        <v>29.809871191366817</v>
+      </c>
+      <c r="D44">
+        <v>1.0000010049283512</v>
+      </c>
+      <c r="E44">
+        <v>-0.0009251459190801105</v>
+      </c>
+      <c r="F44">
+        <v>0.000315595026124211</v>
+      </c>
+      <c r="G44">
+        <v>3.5922704853297486e-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>331.00574046475737</v>
+      </c>
+      <c r="B45">
+        <v>348.620369451371</v>
+      </c>
+      <c r="C45">
+        <v>29.810170135859046</v>
+      </c>
+      <c r="D45">
+        <v>0.999998640012985</v>
+      </c>
+      <c r="E45">
+        <v>-0.0007467939109061874</v>
+      </c>
+      <c r="F45">
+        <v>-0.0003293370390193553</v>
+      </c>
+      <c r="G45">
+        <v>-0.00044488295260178897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>333.87329024899344</v>
+      </c>
+      <c r="B46">
+        <v>351.18895592215625</v>
+      </c>
+      <c r="C46">
+        <v>29.800799221117927</v>
+      </c>
+      <c r="D46">
+        <v>1.0000006366561014</v>
+      </c>
+      <c r="E46">
+        <v>-0.0007907949670315478</v>
+      </c>
+      <c r="F46">
+        <v>0.0005454316937999361</v>
+      </c>
+      <c r="G46">
+        <v>-1.4953184393790697e-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>336.37162335844306</v>
+      </c>
+      <c r="B47">
+        <v>354.0795267876097</v>
+      </c>
+      <c r="C47">
+        <v>29.804138283786923</v>
+      </c>
+      <c r="D47">
+        <v>0.999998603230484</v>
+      </c>
+      <c r="E47">
+        <v>-0.0028144073987897665</v>
+      </c>
+      <c r="F47">
+        <v>-0.001621508505677055</v>
+      </c>
+      <c r="G47">
+        <v>-0.0002026447015202859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>339.4325829220568</v>
+      </c>
+      <c r="B48">
+        <v>356.4336788588771</v>
+      </c>
+      <c r="C48">
+        <v>29.799380753642914</v>
+      </c>
+      <c r="D48">
+        <v>1.000001581506894</v>
+      </c>
+      <c r="E48">
+        <v>0.0002949718547317382</v>
+      </c>
+      <c r="F48">
+        <v>0.0004824353561282202</v>
+      </c>
+      <c r="G48">
+        <v>-6.604081197622246e-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>342.8359306286628</v>
+      </c>
+      <c r="B49">
+        <v>358.1096011104697</v>
+      </c>
+      <c r="C49">
+        <v>29.81221211869386</v>
+      </c>
+      <c r="D49">
+        <v>0.9999930750367203</v>
+      </c>
+      <c r="E49">
+        <v>-0.0033011638114321474</v>
+      </c>
+      <c r="F49">
+        <v>-0.002433118176818195</v>
+      </c>
+      <c r="G49">
+        <v>-0.00030795895235737986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>346.3272072695072</v>
+      </c>
+      <c r="B50">
+        <v>359.57645237505113</v>
+      </c>
+      <c r="C50">
+        <v>29.817676128758563</v>
+      </c>
+      <c r="D50">
+        <v>0.9999931359156232</v>
+      </c>
+      <c r="E50">
+        <v>-0.0034033680220594987</v>
+      </c>
+      <c r="F50">
+        <v>-0.0022560878867818263</v>
+      </c>
+      <c r="G50">
+        <v>-0.0003156423260559146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>349.64371149256084</v>
+      </c>
+      <c r="B51">
+        <v>361.5516123364667</v>
+      </c>
+      <c r="C51">
+        <v>29.8065135957247</v>
+      </c>
+      <c r="D51">
+        <v>1.000001759192355</v>
+      </c>
+      <c r="E51">
+        <v>0.0005707749704079453</v>
+      </c>
+      <c r="F51">
+        <v>0.0009005895159466613</v>
+      </c>
+      <c r="G51">
+        <v>-0.0002090660089450433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>352.50466793446856</v>
+      </c>
+      <c r="B52">
+        <v>364.1091778026256</v>
+      </c>
+      <c r="C52">
+        <v>29.807195772972044</v>
+      </c>
+      <c r="D52">
+        <v>0.9999984213421428</v>
+      </c>
+      <c r="E52">
+        <v>-0.002870613940712691</v>
+      </c>
+      <c r="F52">
+        <v>-0.0013729661812696137</v>
+      </c>
+      <c r="G52">
+        <v>0.0006300015181764467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>355.77354732194067</v>
+      </c>
+      <c r="B53">
+        <v>366.20895564825486</v>
+      </c>
+      <c r="C53">
+        <v>29.79930695434556</v>
+      </c>
+      <c r="D53">
+        <v>1.000001225914652</v>
+      </c>
+      <c r="E53">
+        <v>0.00045065606195014013</v>
+      </c>
+      <c r="F53">
+        <v>0.0008585688202547713</v>
+      </c>
+      <c r="G53">
+        <v>-4.5342837545507585e-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>358.4103706609741</v>
+      </c>
+      <c r="B54">
+        <v>368.9976252405173</v>
+      </c>
+      <c r="C54">
+        <v>29.807456165501215</v>
+      </c>
+      <c r="D54">
+        <v>0.9999982819467979</v>
+      </c>
+      <c r="E54">
+        <v>-0.00014582741280812933</v>
+      </c>
+      <c r="F54">
+        <v>8.144546386955256e-5</v>
+      </c>
+      <c r="G54">
+        <v>-0.00034872685543424747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>361.28233520524316</v>
+      </c>
+      <c r="B55">
+        <v>371.60835697294925</v>
+      </c>
+      <c r="C55">
+        <v>29.80053675750645</v>
+      </c>
+      <c r="D55">
+        <v>1.0000009668540444</v>
+      </c>
+      <c r="E55">
+        <v>-0.0021949631792349596</v>
+      </c>
+      <c r="F55">
+        <v>-0.0009483009693082229</v>
+      </c>
+      <c r="G55">
+        <v>-0.00030051355686907383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>364.5684256798156</v>
+      </c>
+      <c r="B56">
+        <v>373.68750201312645</v>
+      </c>
+      <c r="C56">
+        <v>29.80018937343451</v>
+      </c>
+      <c r="D56">
+        <v>1.0000016548714485</v>
+      </c>
+      <c r="E56">
+        <v>0.0003322769258829217</v>
+      </c>
+      <c r="F56">
+        <v>0.0003498507595217375</v>
+      </c>
+      <c r="G56">
+        <v>-0.00013666060714833062</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>368.0680770354467</v>
+      </c>
+      <c r="B57">
+        <v>375.260569447826</v>
+      </c>
+      <c r="C57">
+        <v>29.810049155441554</v>
+      </c>
+      <c r="D57">
+        <v>0.9999967100441836</v>
+      </c>
+      <c r="E57">
+        <v>-0.0029991234134979262</v>
+      </c>
+      <c r="F57">
+        <v>-0.0017363770976074181</v>
+      </c>
+      <c r="G57">
+        <v>-0.003454247366979156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>371.2615194374319</v>
+      </c>
+      <c r="B58">
+        <v>377.5179089084136</v>
+      </c>
+      <c r="C58">
+        <v>29.799740476709765</v>
+      </c>
+      <c r="D58">
+        <v>1.0000003795045869</v>
+      </c>
+      <c r="E58">
+        <v>-0.0004283958445708696</v>
+      </c>
+      <c r="F58">
+        <v>0.0002320662244512159</v>
+      </c>
+      <c r="G58">
+        <v>-1.3050386071962055e-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>373.7351987948998</v>
+      </c>
+      <c r="B59">
+        <v>380.43855667684613</v>
+      </c>
+      <c r="C59">
+        <v>29.812394483110953</v>
+      </c>
+      <c r="D59">
+        <v>0.9999935258770866</v>
+      </c>
+      <c r="E59">
+        <v>0.0028313264668191574</v>
+      </c>
+      <c r="F59">
+        <v>0.002673652834922553</v>
+      </c>
+      <c r="G59">
+        <v>0.00019800176249819097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>376.99480551851303</v>
+      </c>
+      <c r="B60">
+        <v>382.5701919326782</v>
+      </c>
+      <c r="C60">
+        <v>29.803805705143645</v>
+      </c>
+      <c r="D60">
+        <v>1.000001906190122</v>
+      </c>
+      <c r="E60">
+        <v>0.0006809194265471523</v>
+      </c>
+      <c r="F60">
+        <v>0.0008402644981649666</v>
+      </c>
+      <c r="G60">
+        <v>-0.000352292728912379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>379.9975347582442</v>
+      </c>
+      <c r="B61">
+        <v>385.07390575859296</v>
+      </c>
+      <c r="C61">
+        <v>29.79932707463755</v>
+      </c>
+      <c r="D61">
+        <v>1.0000007688971777</v>
+      </c>
+      <c r="E61">
+        <v>-0.0013951051333004679</v>
+      </c>
+      <c r="F61">
+        <v>-0.0003882062492072695</v>
+      </c>
+      <c r="G61">
+        <v>8.509777365737834e-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>383.36049001172404</v>
+      </c>
+      <c r="B62">
+        <v>387.0362992908267</v>
+      </c>
+      <c r="C62">
+        <v>29.801715355440148</v>
+      </c>
+      <c r="D62">
+        <v>1.0000011939703302</v>
+      </c>
+      <c r="E62">
+        <v>0.00048739025760588566</v>
+      </c>
+      <c r="F62">
+        <v>0.00047109875016339335</v>
+      </c>
+      <c r="G62">
+        <v>-0.0029224420049295888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>386.83235886547067</v>
+      </c>
+      <c r="B63">
+        <v>388.78322684064017</v>
+      </c>
+      <c r="C63">
+        <v>29.803834914993796</v>
+      </c>
+      <c r="D63">
+        <v>1.0000008885970417</v>
+      </c>
+      <c r="E63">
+        <v>-1.633780844455401e-5</v>
+      </c>
+      <c r="F63">
+        <v>-1.4689940262049306e-5</v>
+      </c>
+      <c r="G63">
+        <v>-0.0003540991634929876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>390.42138321693636</v>
+      </c>
+      <c r="B64">
+        <v>388.8731056666916</v>
+      </c>
+      <c r="C64">
+        <v>29.838160594149585</v>
+      </c>
+      <c r="D64">
+        <v>0.9999774736952649</v>
+      </c>
+      <c r="E64">
+        <v>-0.006904596778400716</v>
+      </c>
+      <c r="F64">
+        <v>-0.001317772852608716</v>
+      </c>
+      <c r="G64">
+        <v>-2.269378876069464e-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>393.14919261346625</v>
+      </c>
+      <c r="B65">
+        <v>391.42755015222804</v>
+      </c>
+      <c r="C65">
+        <v>29.84908636683802</v>
+      </c>
+      <c r="D65">
+        <v>0.9999926948394122</v>
+      </c>
+      <c r="E65">
+        <v>0.0018830658420902746</v>
+      </c>
+      <c r="F65">
+        <v>0.0014168157586286806</v>
+      </c>
+      <c r="G65">
+        <v>-0.0003671436902965296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>396.18214730241675</v>
+      </c>
+      <c r="B66">
+        <v>393.71885909225733</v>
+      </c>
+      <c r="C66">
+        <v>29.826438306562792</v>
+      </c>
+      <c r="D66">
+        <v>1.000000550129238</v>
+      </c>
+      <c r="E66">
+        <v>-0.0030510003990103373</v>
+      </c>
+      <c r="F66">
+        <v>-0.0009039908792475885</v>
+      </c>
+      <c r="G66">
+        <v>-0.0029079096577946063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>399.41130314274403</v>
+      </c>
+      <c r="B67">
+        <v>395.82307632308846</v>
+      </c>
+      <c r="C67">
+        <v>29.80917299370618</v>
+      </c>
+      <c r="D67">
+        <v>1.000000657222796</v>
+      </c>
+      <c r="E67">
+        <v>-0.000853150456514312</v>
+      </c>
+      <c r="F67">
+        <v>0.000539468527618005</v>
+      </c>
+      <c r="G67">
+        <v>-9.788414432544618e-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>401.893176651348</v>
+      </c>
+      <c r="B68">
+        <v>398.6559891442865</v>
+      </c>
+      <c r="C68">
+        <v>29.819989295928135</v>
+      </c>
+      <c r="D68">
+        <v>0.9999923250444006</v>
+      </c>
+      <c r="E68">
+        <v>0.0031579776294851413</v>
+      </c>
+      <c r="F68">
+        <v>0.002655478122674469</v>
+      </c>
+      <c r="G68">
+        <v>0.00013039620628001422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>405.00153243067354</v>
+      </c>
+      <c r="B69">
+        <v>400.951135028793</v>
+      </c>
+      <c r="C69">
+        <v>29.804765258466574</v>
+      </c>
+      <c r="D69">
+        <v>1.0000005750590273</v>
+      </c>
+      <c r="E69">
+        <v>-0.0006655579756351936</v>
+      </c>
+      <c r="F69">
+        <v>0.0005411554706471041</v>
+      </c>
+      <c r="G69">
+        <v>-1.914001117703649e-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>407.2329066770965</v>
+      </c>
+      <c r="B70">
+        <v>403.97702177291876</v>
+      </c>
+      <c r="C70">
+        <v>29.81978497869445</v>
+      </c>
+      <c r="D70">
+        <v>0.9999910668667245</v>
+      </c>
+      <c r="E70">
+        <v>0.0030997752706199725</v>
+      </c>
+      <c r="F70">
+        <v>0.0031221024645315</v>
+      </c>
+      <c r="G70">
+        <v>0.0003554114233959185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>409.0458938222188</v>
+      </c>
+      <c r="B71">
+        <v>407.2529127758037</v>
+      </c>
+      <c r="C71">
+        <v>29.82270150786205</v>
+      </c>
+      <c r="D71">
+        <v>0.9999902875354929</v>
+      </c>
+      <c r="E71">
+        <v>0.0030872374942390543</v>
+      </c>
+      <c r="F71">
+        <v>0.003604543780894388</v>
+      </c>
+      <c r="G71">
+        <v>-3.0136781987605377e-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>411.5676643384735</v>
+      </c>
+      <c r="B72">
+        <v>410.1435492970074</v>
+      </c>
+      <c r="C72">
+        <v>29.81617810864272</v>
+      </c>
+      <c r="D72">
+        <v>1.0000011414846504</v>
+      </c>
+      <c r="E72">
+        <v>-0.0011551738894215126</v>
+      </c>
+      <c r="F72">
+        <v>-0.00034696511470040577</v>
+      </c>
+      <c r="G72">
+        <v>0.00015558565170707743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>413.736732919299</v>
+      </c>
+      <c r="B73">
+        <v>413.28221852670197</v>
+      </c>
+      <c r="C73">
+        <v>29.814436487501194</v>
+      </c>
+      <c r="D73">
+        <v>0.9999984332680716</v>
+      </c>
+      <c r="E73">
+        <v>-0.0017118354652894254</v>
+      </c>
+      <c r="F73">
+        <v>-0.00113895145796455</v>
+      </c>
+      <c r="G73">
+        <v>0.0009369888244221806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>416.4622043022504</v>
+      </c>
+      <c r="B74">
+        <v>416.02411007864504</v>
+      </c>
+      <c r="C74">
+        <v>29.80393846770746</v>
+      </c>
+      <c r="D74">
+        <v>1.000001150197521</v>
+      </c>
+      <c r="E74">
+        <v>0.0001141915057101001</v>
+      </c>
+      <c r="F74">
+        <v>0.00093843280410902</v>
+      </c>
+      <c r="G74">
+        <v>-1.545323738154188e-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>419.74501505811384</v>
+      </c>
+      <c r="B75">
+        <v>417.8765560560597</v>
+      </c>
+      <c r="C75">
+        <v>29.817646581004436</v>
+      </c>
+      <c r="D75">
+        <v>0.9999897067516432</v>
+      </c>
+      <c r="E75">
+        <v>-0.0034217568405862085</v>
+      </c>
+      <c r="F75">
+        <v>-0.0027436554021569876</v>
+      </c>
+      <c r="G75">
+        <v>0.00014932124782610946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>422.41935598127117</v>
+      </c>
+      <c r="B76">
+        <v>420.6613439164504</v>
+      </c>
+      <c r="C76">
+        <v>29.80684193262934</v>
+      </c>
+      <c r="D76">
+        <v>1.000000794352172</v>
+      </c>
+      <c r="E76">
+        <v>-0.0016125860094865023</v>
+      </c>
+      <c r="F76">
+        <v>-0.00025692079982392855</v>
+      </c>
+      <c r="G76">
+        <v>1.8453538168787584e-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>425.59279961916536</v>
+      </c>
+      <c r="B77">
+        <v>422.83453059307556</v>
+      </c>
+      <c r="C77">
+        <v>29.80780217915618</v>
+      </c>
+      <c r="D77">
+        <v>1.00000023825321</v>
+      </c>
+      <c r="E77">
+        <v>-0.0003312305063189174</v>
+      </c>
+      <c r="F77">
+        <v>-0.00036952624727394444</v>
+      </c>
+      <c r="G77">
+        <v>-0.0001360870386154147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>428.7192241121597</v>
+      </c>
+      <c r="B78">
+        <v>425.1249570051104</v>
+      </c>
+      <c r="C78">
+        <v>29.802710679791897</v>
+      </c>
+      <c r="D78">
+        <v>1.0000015431881442</v>
+      </c>
+      <c r="E78">
+        <v>0.0003362497534683564</v>
+      </c>
+      <c r="F78">
+        <v>0.00048665688920410783</v>
+      </c>
+      <c r="G78">
+        <v>-7.084658821930896e-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>431.8976076779664</v>
+      </c>
+      <c r="B79">
+        <v>427.3594136635043</v>
+      </c>
+      <c r="C79">
+        <v>29.800560625966146</v>
+      </c>
+      <c r="D79">
+        <v>1.0000015764158792</v>
+      </c>
+      <c r="E79">
+        <v>0.00045427359732737077</v>
+      </c>
+      <c r="F79">
+        <v>0.0005991390378393354</v>
+      </c>
+      <c r="G79">
+        <v>-0.000156591184006223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>434.8320441682277</v>
+      </c>
+      <c r="B80">
+        <v>429.9374516748507</v>
+      </c>
+      <c r="C80">
+        <v>29.7973421670856</v>
+      </c>
+      <c r="D80">
+        <v>1.0000006056422874</v>
+      </c>
+      <c r="E80">
+        <v>-0.001003262925658317</v>
+      </c>
+      <c r="F80">
+        <v>-8.264268131437032e-5</v>
+      </c>
+      <c r="G80">
+        <v>1.0378953492216203e-7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>437.0545231618877</v>
+      </c>
+      <c r="B81">
+        <v>433.0585489947767</v>
+      </c>
+      <c r="C81">
+        <v>29.810467205999526</v>
+      </c>
+      <c r="D81">
+        <v>0.9999937297609609</v>
+      </c>
+      <c r="E81">
+        <v>0.002600079472569937</v>
+      </c>
+      <c r="F81">
+        <v>0.002846456440570693</v>
+      </c>
+      <c r="G81">
+        <v>0.00023148514458804265</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States1.xlsx
+++ b/src/Quadrotor_States1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,922 +428,2762 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2.3756135921674417</v>
+        <v>210.7444205238522</v>
       </c>
       <c r="B2">
-        <v>10.000015986500431</v>
+        <v>350.60218538534116</v>
       </c>
       <c r="C2">
-        <v>5.041021425686195</v>
+        <v>13.234944858512742</v>
       </c>
       <c r="D2">
-        <v>0.9999944007260277</v>
+        <v>0.9999955694452642</v>
       </c>
       <c r="E2">
-        <v>1.5363793074691227e-6</v>
+        <v>0.0029554286548576056</v>
       </c>
       <c r="F2">
-        <v>-0.003417982165460682</v>
+        <v>-0.0027412310282017936</v>
       </c>
       <c r="G2">
-        <v>1.2108936730310124e-6</v>
+        <v>0.00419528962831092</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1.1979129593558575</v>
+        <v>211.38466285494238</v>
       </c>
       <c r="B3">
-        <v>9.778642669568471</v>
+        <v>351.7891972281372</v>
       </c>
       <c r="C3">
-        <v>4.9598093619188415</v>
+        <v>17.124344963073057</v>
       </c>
       <c r="D3">
-        <v>0.9999854501965733</v>
+        <v>1.0000025156964032</v>
       </c>
       <c r="E3">
-        <v>0.00023688178888371146</v>
+        <v>-0.0006873639388874232</v>
       </c>
       <c r="F3">
-        <v>0.0018076600673437799</v>
+        <v>0.0002555192942024723</v>
       </c>
       <c r="G3">
-        <v>0.0033565509471250718</v>
+        <v>0.008188223585699922</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2.1053869230937314</v>
+        <v>211.5996582495585</v>
       </c>
       <c r="B4">
-        <v>8.945264016339937</v>
+        <v>352.54350012437254</v>
       </c>
       <c r="C4">
-        <v>4.69292220440965</v>
+        <v>20.917595503835173</v>
       </c>
       <c r="D4">
-        <v>0.9999820195853815</v>
+        <v>1.0000001816092248</v>
       </c>
       <c r="E4">
-        <v>0.002560315602183776</v>
+        <v>-0.002857698193298328</v>
       </c>
       <c r="F4">
-        <v>0.002518751913853352</v>
+        <v>-0.00021265776428806843</v>
       </c>
       <c r="G4">
-        <v>-0.005068758120327577</v>
+        <v>-0.00028431427825585713</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2.318936865704972</v>
+        <v>209.9846157338079</v>
       </c>
       <c r="B5">
-        <v>9.161205684034249</v>
+        <v>353.31846553246123</v>
       </c>
       <c r="C5">
-        <v>4.634083986958673</v>
+        <v>23.78509473497574</v>
       </c>
       <c r="D5">
-        <v>1.0000111422708413</v>
+        <v>0.999982327172693</v>
       </c>
       <c r="E5">
-        <v>-0.0019013237702711658</v>
+        <v>0.0012060894945805781</v>
       </c>
       <c r="F5">
-        <v>0.00022782531747906286</v>
+        <v>0.006206591557041114</v>
       </c>
       <c r="G5">
-        <v>0.014907357724441718</v>
+        <v>-6.923707628377704e-6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2.6974574359254664</v>
+        <v>208.63204080685557</v>
       </c>
       <c r="B6">
-        <v>8.87764507380779</v>
+        <v>351.9224448394223</v>
       </c>
       <c r="C6">
-        <v>4.581175728571824</v>
+        <v>26.14461296116842</v>
       </c>
       <c r="D6">
-        <v>1.0000050995187084</v>
+        <v>0.9999744749643485</v>
       </c>
       <c r="E6">
-        <v>0.00010108733766145268</v>
+        <v>-0.006275620437861739</v>
       </c>
       <c r="F6">
-        <v>-0.00013267177987958068</v>
+        <v>0.003993274363060424</v>
       </c>
       <c r="G6">
-        <v>-0.012848989626701215</v>
+        <v>-3.2733682807888104e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>3.082446988172435</v>
+        <v>207.56146610928818</v>
       </c>
       <c r="B7">
-        <v>8.762222763319723</v>
+        <v>349.805846461229</v>
       </c>
       <c r="C7">
-        <v>4.567769035691267</v>
+        <v>27.621968081570778</v>
       </c>
       <c r="D7">
-        <v>1.0000015644819669</v>
+        <v>0.99997393328278</v>
       </c>
       <c r="E7">
-        <v>-0.00025240597418260886</v>
+        <v>-0.007224180925516162</v>
       </c>
       <c r="F7">
-        <v>-1.590572088499272e-5</v>
+        <v>0.002146991777636713</v>
       </c>
       <c r="G7">
-        <v>-0.013702272606722367</v>
+        <v>-4.201731866711802e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>3.4625097793910475</v>
+        <v>206.5852638566685</v>
       </c>
       <c r="B8">
-        <v>8.65149193649243</v>
+        <v>347.3472157809533</v>
       </c>
       <c r="C8">
-        <v>4.559505652355869</v>
+        <v>28.450854285759434</v>
       </c>
       <c r="D8">
-        <v>1.0000003861814273</v>
+        <v>0.9999776560412318</v>
       </c>
       <c r="E8">
-        <v>0.00036873821693759605</v>
+        <v>-0.0068722888168077315</v>
       </c>
       <c r="F8">
-        <v>1.6727152455582397e-5</v>
+        <v>0.0013889553249368234</v>
       </c>
       <c r="G8">
-        <v>-0.013822588150245228</v>
+        <v>-2.9532637133608707e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3.8525951706098938</v>
+        <v>205.24985115094046</v>
       </c>
       <c r="B9">
-        <v>8.551936217624476</v>
+        <v>344.8190276161824</v>
       </c>
       <c r="C9">
-        <v>4.555064330437853</v>
+        <v>28.98888699781459</v>
       </c>
       <c r="D9">
-        <v>0.9999996804335274</v>
+        <v>0.9999833219568938</v>
       </c>
       <c r="E9">
-        <v>-9.20949687828219e-5</v>
+        <v>-0.005651157899185839</v>
       </c>
       <c r="F9">
-        <v>6.459063968972785e-5</v>
+        <v>0.002305542131710109</v>
       </c>
       <c r="G9">
-        <v>-0.014001806134239613</v>
+        <v>-1.6660525613271325e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>4.236384357153905</v>
+        <v>203.3394594130682</v>
       </c>
       <c r="B10">
-        <v>8.467074559374932</v>
+        <v>342.47398045824053</v>
       </c>
       <c r="C10">
-        <v>4.5536508819377675</v>
+        <v>29.3757693693847</v>
       </c>
       <c r="D10">
-        <v>1.0000003415923935</v>
+        <v>0.999987506292997</v>
       </c>
       <c r="E10">
-        <v>0.00017907861513867908</v>
+        <v>-0.0037811571935274122</v>
       </c>
       <c r="F10">
-        <v>-8.215702755206138e-6</v>
+        <v>0.0037542022967424183</v>
       </c>
       <c r="G10">
-        <v>-0.013978373035825548</v>
+        <v>-9.747105795434313e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>4.624648648563055</v>
+        <v>201.3181196602094</v>
       </c>
       <c r="B11">
-        <v>8.404417611137491</v>
+        <v>340.03938501995174</v>
       </c>
       <c r="C11">
-        <v>4.5546534400532845</v>
+        <v>29.69920449891178</v>
       </c>
       <c r="D11">
-        <v>0.9999997049074186</v>
+        <v>0.9999907148618462</v>
       </c>
       <c r="E11">
-        <v>-0.00010888482212766649</v>
+        <v>-0.0032520671064912546</v>
       </c>
       <c r="F11">
-        <v>1.7662723041677537e-5</v>
+        <v>0.003304924171817354</v>
       </c>
       <c r="G11">
-        <v>-0.014091886040994607</v>
+        <v>-6.227893011100056e-6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>5.011860133462588</v>
+        <v>198.9847648580228</v>
       </c>
       <c r="B12">
-        <v>8.345949202228434</v>
+        <v>337.880788012506</v>
       </c>
       <c r="C12">
-        <v>4.55764892511215</v>
+        <v>29.881569022861573</v>
       </c>
       <c r="D12">
-        <v>1.0000003016588155</v>
+        <v>0.9999903751820859</v>
       </c>
       <c r="E12">
-        <v>0.0001495559349078485</v>
+        <v>-0.0016108913932632923</v>
       </c>
       <c r="F12">
-        <v>-8.499234744643821e-6</v>
+        <v>0.0034850436314402384</v>
       </c>
       <c r="G12">
-        <v>-0.014061674364749801</v>
+        <v>0.0006013517641941962</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>5.385927233483545</v>
+        <v>196.99406628140306</v>
       </c>
       <c r="B13">
-        <v>8.246150896489917</v>
+        <v>335.34176477283086</v>
       </c>
       <c r="C13">
-        <v>4.562124730465434</v>
+        <v>29.974577001111683</v>
       </c>
       <c r="D13">
-        <v>0.9999996763402106</v>
+        <v>0.9999884909353802</v>
       </c>
       <c r="E13">
-        <v>0.0001229238325467688</v>
+        <v>-0.00043348713439414846</v>
       </c>
       <c r="F13">
-        <v>-4.267719460806456e-5</v>
+        <v>0.0004065903055034335</v>
       </c>
       <c r="G13">
-        <v>-0.01415106622214725</v>
+        <v>0.0016039704187313865</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>5.752342809882281</v>
+        <v>195.0962149450268</v>
       </c>
       <c r="B14">
-        <v>8.120656409004793</v>
+        <v>332.6751904617342</v>
       </c>
       <c r="C14">
-        <v>4.56774772251689</v>
+        <v>29.99489397559512</v>
       </c>
       <c r="D14">
-        <v>1.0000001908829206</v>
+        <v>1.0000005246540726</v>
       </c>
       <c r="E14">
-        <v>-0.0002617334384059818</v>
+        <v>0.0005002075453023867</v>
       </c>
       <c r="F14">
-        <v>8.542883207800271e-5</v>
+        <v>-0.00023805994954962805</v>
       </c>
       <c r="G14">
-        <v>-0.014311491961315695</v>
+        <v>-0.005107018523609109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>6.122872791507398</v>
+        <v>193.9429762566495</v>
       </c>
       <c r="B15">
-        <v>8.030016357299994</v>
+        <v>329.44448345408176</v>
       </c>
       <c r="C15">
-        <v>4.574501527932955</v>
+        <v>29.997269383576132</v>
       </c>
       <c r="D15">
-        <v>0.9999997727375811</v>
+        <v>0.9999882003646183</v>
       </c>
       <c r="E15">
-        <v>-0.00011980527003309216</v>
+        <v>-0.004342733030956232</v>
       </c>
       <c r="F15">
-        <v>1.3837465811641842e-5</v>
+        <v>-0.002083585037778636</v>
       </c>
       <c r="G15">
-        <v>-0.014462964341604127</v>
+        <v>-1.863117877145397e-16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>6.501875792510692</v>
+        <v>192.0165749806431</v>
       </c>
       <c r="B16">
-        <v>7.982889741432313</v>
+        <v>326.4522839538864</v>
       </c>
       <c r="C16">
-        <v>4.582072261313899</v>
+        <v>29.99807961988914</v>
       </c>
       <c r="D16">
-        <v>1.0000001906769957</v>
+        <v>0.9999960260065872</v>
       </c>
       <c r="E16">
-        <v>0.00025647561856158166</v>
+        <v>-0.0024161156412449885</v>
       </c>
       <c r="F16">
-        <v>-3.227751894156336e-5</v>
+        <v>0.00143661361746222</v>
       </c>
       <c r="G16">
-        <v>-0.014221503353773653</v>
+        <v>1.2124009840409875e-16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>6.873733167754451</v>
+        <v>190.47953174754966</v>
       </c>
       <c r="B17">
-        <v>7.923235674226821</v>
+        <v>323.3930622909718</v>
       </c>
       <c r="C17">
-        <v>4.590321664496025</v>
+        <v>29.999689484836818</v>
       </c>
       <c r="D17">
-        <v>0.9999998467520126</v>
+        <v>0.9999996473246644</v>
       </c>
       <c r="E17">
-        <v>8.242099145564627e-5</v>
+        <v>0.004304323733851062</v>
       </c>
       <c r="F17">
-        <v>-1.4686293630788466e-5</v>
+        <v>0.0008542689297508712</v>
       </c>
       <c r="G17">
-        <v>-0.014282676203973423</v>
+        <v>0.0034629435962617865</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>7.228631998436915</v>
+        <v>188.79704618150745</v>
       </c>
       <c r="B18">
-        <v>7.800262443455741</v>
+        <v>320.26660368769444</v>
       </c>
       <c r="C18">
-        <v>4.59916653142868</v>
+        <v>29.998728706165334</v>
       </c>
       <c r="D18">
-        <v>1.0000000345659799</v>
+        <v>1.0000020437274182</v>
       </c>
       <c r="E18">
-        <v>-8.969721245790593e-5</v>
+        <v>0.001187724016996539</v>
       </c>
       <c r="F18">
-        <v>4.1032543964841266e-5</v>
+        <v>-0.0001564258889885807</v>
       </c>
       <c r="G18">
-        <v>-0.01427009858079002</v>
+        <v>0.00046470165414937294</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>7.576620100257995</v>
+        <v>186.6939437840811</v>
       </c>
       <c r="B19">
-        <v>7.666425150543651</v>
+        <v>317.3890564934879</v>
       </c>
       <c r="C19">
-        <v>4.608307701327075</v>
+        <v>29.999784731143443</v>
       </c>
       <c r="D19">
-        <v>1.0000000097607702</v>
+        <v>1.0000047812372341</v>
       </c>
       <c r="E19">
-        <v>-0.00014802887553318092</v>
+        <v>0.0007664269423804636</v>
       </c>
       <c r="F19">
-        <v>5.5231625358434185e-5</v>
+        <v>-0.0029186494994310596</v>
       </c>
       <c r="G19">
-        <v>-0.014287143204874658</v>
+        <v>0.0003316563183855391</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>7.939043924783217</v>
+        <v>184.5219194973896</v>
       </c>
       <c r="B20">
-        <v>7.608207582053779</v>
+        <v>314.4747040091913</v>
       </c>
       <c r="C20">
-        <v>4.617977446298287</v>
+        <v>29.998211296133455</v>
       </c>
       <c r="D20">
-        <v>0.9999998619370376</v>
+        <v>1.0000021970014876</v>
       </c>
       <c r="E20">
-        <v>-0.00013360202869862345</v>
+        <v>0.0003566331515487035</v>
       </c>
       <c r="F20">
-        <v>3.991878559312961e-5</v>
+        <v>-0.001150131259986663</v>
       </c>
       <c r="G20">
-        <v>-0.014284815802880508</v>
+        <v>0.00011317738275439887</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>8.305936433745796</v>
+        <v>182.60429032430227</v>
       </c>
       <c r="B21">
-        <v>7.5829495628969585</v>
+        <v>311.44735801400634</v>
       </c>
       <c r="C21">
-        <v>4.627587259597859</v>
+        <v>29.999999999003183</v>
       </c>
       <c r="D21">
-        <v>1.0000001201090885</v>
+        <v>1.0000058430035532</v>
       </c>
       <c r="E21">
-        <v>0.00027116614189210276</v>
+        <v>0.004438672847145616</v>
       </c>
       <c r="F21">
-        <v>-3.086733229231924e-5</v>
+        <v>-0.001649879250017223</v>
       </c>
       <c r="G21">
-        <v>-0.014263021976241791</v>
+        <v>1.6993983492761977e-5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>8.65814494966479</v>
+        <v>180.77931384956938</v>
       </c>
       <c r="B22">
-        <v>7.514719437651759</v>
+        <v>308.3554421974279</v>
       </c>
       <c r="C22">
-        <v>4.6376967770737</v>
+        <v>29.99737886554162</v>
       </c>
       <c r="D22">
-        <v>0.9999998632200113</v>
+        <v>1.0000007422876114</v>
       </c>
       <c r="E22">
-        <v>0.00013514029678245382</v>
+        <v>0.008484470139981779</v>
       </c>
       <c r="F22">
-        <v>-2.065755797753976e-5</v>
+        <v>0.0010568041528974822</v>
       </c>
       <c r="G22">
-        <v>-0.014302012470557245</v>
+        <v>4.445003809636413e-5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>8.989523845052561</v>
+        <v>179.09161285130824</v>
       </c>
       <c r="B23">
-        <v>7.368225483344813</v>
+        <v>304.9767385560714</v>
       </c>
       <c r="C23">
-        <v>4.647742308531034</v>
+        <v>29.99669700573397</v>
       </c>
       <c r="D23">
-        <v>0.9999999799103011</v>
+        <v>0.9999980672246821</v>
       </c>
       <c r="E23">
-        <v>-9.689687222239285e-5</v>
+        <v>-0.0018587008494499657</v>
       </c>
       <c r="F23">
-        <v>4.212322742071317e-5</v>
+        <v>-0.0006322030530838459</v>
       </c>
       <c r="G23">
-        <v>-0.01429686329041026</v>
+        <v>-2.5162909010990477e-16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>9.31679516137008</v>
+        <v>176.72723505926905</v>
       </c>
       <c r="B24">
-        <v>7.234113396675517</v>
+        <v>302.00505601196164</v>
       </c>
       <c r="C24">
-        <v>4.6578804130449045</v>
+        <v>29.99999969207467</v>
       </c>
       <c r="D24">
-        <v>1.0000000834609548</v>
+        <v>0.9999975885170412</v>
       </c>
       <c r="E24">
-        <v>-0.00020644387742320717</v>
+        <v>0.00017427544011570635</v>
       </c>
       <c r="F24">
-        <v>8.672396978371949e-5</v>
+        <v>0.002185278068200968</v>
       </c>
       <c r="G24">
-        <v>-0.014300324015328717</v>
+        <v>7.21678189439928e-16</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>9.664257788501203</v>
+        <v>174.35771637498277</v>
       </c>
       <c r="B25">
-        <v>7.198893190652322</v>
+        <v>299.0693954216906</v>
       </c>
       <c r="C25">
-        <v>4.668267601424654</v>
+        <v>29.997947416992858</v>
       </c>
       <c r="D25">
-        <v>0.9999997225979601</v>
+        <v>1.000002237112754</v>
       </c>
       <c r="E25">
-        <v>-0.00035572503005697637</v>
+        <v>-0.00020044387676197158</v>
       </c>
       <c r="F25">
-        <v>7.746188547060687e-5</v>
+        <v>-0.0012179866971752315</v>
       </c>
       <c r="G25">
-        <v>-0.014322730949565531</v>
+        <v>-7.639764835570905e-5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>10.008975207076798</v>
+        <v>172.84876626568345</v>
       </c>
       <c r="B26">
-        <v>7.169334367030055</v>
+        <v>295.5663214941383</v>
       </c>
       <c r="C26">
-        <v>4.678046142804367</v>
+        <v>29.999999600826957</v>
       </c>
       <c r="D26">
-        <v>1.0000002455965047</v>
+        <v>0.9999957507000471</v>
       </c>
       <c r="E26">
-        <v>0.00037021828164046373</v>
+        <v>-0.0020287640506495295</v>
       </c>
       <c r="F26">
-        <v>-4.147566016215633e-5</v>
+        <v>-0.002080883528828706</v>
       </c>
       <c r="G26">
-        <v>-0.014133880134400019</v>
+        <v>6.387891957226713e-16</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>10.34707846424162</v>
+        <v>170.8284637226446</v>
       </c>
       <c r="B27">
-        <v>7.140015377594168</v>
+        <v>292.3104090415977</v>
       </c>
       <c r="C27">
-        <v>4.688536716090977</v>
+        <v>29.99722192046523</v>
       </c>
       <c r="D27">
-        <v>0.999999801798586</v>
+        <v>1.0000007562201418</v>
       </c>
       <c r="E27">
-        <v>6.300298818759343e-5</v>
+        <v>0.00085828210196562</v>
       </c>
       <c r="F27">
-        <v>-1.9667419641054392e-5</v>
+        <v>-0.000621159503396813</v>
       </c>
       <c r="G27">
-        <v>-0.014363803071562391</v>
+        <v>-6.772658295852269e-6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>10.688160460100137</v>
+        <v>168.567618670714</v>
       </c>
       <c r="B28">
-        <v>7.1345200542025955</v>
+        <v>289.16193340535926</v>
       </c>
       <c r="C28">
-        <v>4.698985744161519</v>
+        <v>29.996469746538928</v>
       </c>
       <c r="D28">
-        <v>1.0000002140658197</v>
+        <v>0.9999991879734156</v>
       </c>
       <c r="E28">
-        <v>0.00017410586482903843</v>
+        <v>-2.759410328264282e-5</v>
       </c>
       <c r="F28">
-        <v>1.0608750142279062e-5</v>
+        <v>0.0012733110383947453</v>
       </c>
       <c r="G28">
-        <v>-0.014340777667474621</v>
+        <v>-2.6360974676531797e-17</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>11.026205540232857</v>
+        <v>167.1948724212188</v>
       </c>
       <c r="B29">
-        <v>7.143543652074512</v>
+        <v>285.56462211844496</v>
       </c>
       <c r="C29">
-        <v>4.709295909760615</v>
+        <v>29.99999961850952</v>
       </c>
       <c r="D29">
-        <v>0.9999998070288031</v>
+        <v>0.9999951594339287</v>
       </c>
       <c r="E29">
-        <v>4.181650661096573e-8</v>
+        <v>-0.001795535024760036</v>
       </c>
       <c r="F29">
-        <v>-1.0192530476751945e-6</v>
+        <v>-0.002527639628025432</v>
       </c>
       <c r="G29">
-        <v>-0.014412766025984338</v>
+        <v>4.571069945186179e-16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>11.362638820536215</v>
+        <v>166.32183951446248</v>
       </c>
       <c r="B30">
-        <v>7.158967742306394</v>
+        <v>281.90532306436415</v>
       </c>
       <c r="C30">
-        <v>4.719509845762555</v>
+        <v>29.99862639808621</v>
       </c>
       <c r="D30">
-        <v>1.000000189682846</v>
+        <v>0.9999941602690033</v>
       </c>
       <c r="E30">
-        <v>0.00013516914934559593</v>
+        <v>-0.0015218875166958014</v>
       </c>
       <c r="F30">
-        <v>1.8219007091613256e-5</v>
+        <v>-0.0036528989944294493</v>
       </c>
       <c r="G30">
-        <v>-0.014381602598450423</v>
+        <v>-0.003983311433886877</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>11.69692347465013</v>
+        <v>165.66032468365725</v>
       </c>
       <c r="B31">
-        <v>7.189272502071044</v>
+        <v>278.2132358918796</v>
       </c>
       <c r="C31">
-        <v>4.729611277225859</v>
+        <v>29.99997579871108</v>
       </c>
       <c r="D31">
-        <v>0.9999998233373965</v>
+        <v>0.9999934109012765</v>
       </c>
       <c r="E31">
-        <v>8.754839196115556e-6</v>
+        <v>-0.0014738666071659157</v>
       </c>
       <c r="F31">
-        <v>1.4627856511787425e-6</v>
+        <v>-0.004102715596628819</v>
       </c>
       <c r="G31">
-        <v>-0.014436842731708489</v>
+        <v>0.00034439775199475843</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>12.029579893653889</v>
+        <v>164.98594685232314</v>
       </c>
       <c r="B32">
-        <v>7.225382721032355</v>
+        <v>274.5086295970256</v>
       </c>
       <c r="C32">
-        <v>4.739626505192111</v>
+        <v>29.99752538223487</v>
       </c>
       <c r="D32">
-        <v>1.0000001680398019</v>
+        <v>1.0000016168755244</v>
       </c>
       <c r="E32">
-        <v>0.0001100641822007617</v>
+        <v>-0.00015563039041408005</v>
       </c>
       <c r="F32">
-        <v>1.9597935275200808e-5</v>
+        <v>-0.0003747396454170731</v>
       </c>
       <c r="G32">
-        <v>-0.014409158480030373</v>
+        <v>0.00013140025866724403</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>12.359931443974844</v>
+        <v>165.00435122603452</v>
       </c>
       <c r="B33">
-        <v>7.27314171937072</v>
+        <v>270.7601454065721</v>
       </c>
       <c r="C33">
-        <v>4.749549572357778</v>
+        <v>29.997022862646666</v>
       </c>
       <c r="D33">
-        <v>0.9999998399962862</v>
+        <v>0.9999862341516975</v>
       </c>
       <c r="E33">
-        <v>1.6060722803732813e-5</v>
+        <v>-0.0010711339116240217</v>
       </c>
       <c r="F33">
-        <v>2.9777642334197182e-6</v>
+        <v>-0.00508442840295356</v>
       </c>
       <c r="G33">
-        <v>-0.014455005328741773</v>
+        <v>6.605621732202048e-19</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>12.688784479034291</v>
+        <v>164.9633905955232</v>
       </c>
       <c r="B34">
-        <v>7.32620520251217</v>
+        <v>266.95865432546685</v>
       </c>
       <c r="C34">
-        <v>4.759401528642596</v>
+        <v>29.999999609225572</v>
       </c>
       <c r="D34">
-        <v>1.0000001429293015</v>
+        <v>0.9999925794638624</v>
       </c>
       <c r="E34">
-        <v>8.925578085452103e-5</v>
+        <v>-0.0010363008465589791</v>
       </c>
       <c r="F34">
-        <v>1.9553358310391883e-5</v>
+        <v>-0.0036890313937848473</v>
       </c>
       <c r="G34">
-        <v>-0.01442304521718585</v>
+        <v>4.9795412607855236e-17</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>13.015390881735344</v>
+        <v>165.2025661161703</v>
       </c>
       <c r="B35">
-        <v>7.3886037788428025</v>
+        <v>263.2297380372388</v>
       </c>
       <c r="C35">
-        <v>4.769180401377439</v>
+        <v>29.998834505392008</v>
       </c>
       <c r="D35">
-        <v>0.9999998558580564</v>
+        <v>0.999993981977869</v>
       </c>
       <c r="E35">
-        <v>1.9101412915015865e-5</v>
+        <v>-0.0005252665076214563</v>
       </c>
       <c r="F35">
-        <v>4.365703674286813e-6</v>
+        <v>-0.00415117021335426</v>
       </c>
       <c r="G35">
-        <v>-0.01446794691041062</v>
+        <v>0.0012783452285338637</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>13.340574808264629</v>
+        <v>165.6776651664112</v>
       </c>
       <c r="B36">
-        <v>7.455680588710556</v>
+        <v>259.5315925948802</v>
       </c>
       <c r="C36">
-        <v>4.7789032964957805</v>
+        <v>29.99997616748957</v>
       </c>
       <c r="D36">
-        <v>1.0000001289101763</v>
+        <v>0.999994022504927</v>
       </c>
       <c r="E36">
-        <v>7.230322488262664e-5</v>
+        <v>-0.00030533905610766</v>
       </c>
       <c r="F36">
-        <v>1.8518158160021614e-5</v>
+        <v>-0.004487298580018374</v>
       </c>
       <c r="G36">
-        <v>-0.014445338895567528</v>
+        <v>0.0007274727270441584</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>13.663670698832407</v>
+        <v>166.42548777720535</v>
       </c>
       <c r="B37">
-        <v>7.530356272478353</v>
+        <v>255.8991982902889</v>
       </c>
       <c r="C37">
-        <v>4.788570953020342</v>
+        <v>29.998413493986757</v>
       </c>
       <c r="D37">
-        <v>0.9999998708498694</v>
+        <v>0.9999930011157645</v>
       </c>
       <c r="E37">
-        <v>2.0136106444567473e-5</v>
+        <v>3.842347099535248e-5</v>
       </c>
       <c r="F37">
-        <v>5.374303552923675e-6</v>
+        <v>-0.00430467458668157</v>
       </c>
       <c r="G37">
-        <v>-0.014478040951788841</v>
+        <v>0.0001365102544606097</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>13.985422594102047</v>
+        <v>167.13845623359694</v>
       </c>
       <c r="B38">
-        <v>7.609156622636849</v>
+        <v>252.22201372954817</v>
       </c>
       <c r="C38">
-        <v>4.7981965649472516</v>
+        <v>29.995904231451853</v>
       </c>
       <c r="D38">
-        <v>1.0000001141381014</v>
+        <v>0.9999995960914657</v>
       </c>
       <c r="E38">
-        <v>5.912058421911234e-5</v>
+        <v>2.3112389456226822e-5</v>
       </c>
       <c r="F38">
-        <v>1.7057206086496755e-5</v>
+        <v>9.282942445271321e-5</v>
       </c>
       <c r="G38">
-        <v>-0.014457723548853314</v>
+        <v>-6.60692764726873e-5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>14.305272134360854</v>
+        <v>165.60884506315355</v>
       </c>
       <c r="B39">
-        <v>7.694201693478023</v>
+        <v>248.91182859288227</v>
       </c>
       <c r="C39">
-        <v>4.807782127579847</v>
+        <v>29.996367083419468</v>
       </c>
       <c r="D39">
-        <v>0.9999998846551202</v>
+        <v>0.9999781062228946</v>
       </c>
       <c r="E39">
-        <v>1.9948562311932382e-5</v>
+        <v>0.0013377436270537637</v>
       </c>
       <c r="F39">
-        <v>5.981779564860338e-6</v>
+        <v>0.0063792458375281635</v>
       </c>
       <c r="G39">
-        <v>-0.014485587440180806</v>
+        <v>5.773773615179337e-17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>14.62385617498501</v>
+        <v>164.24540435957314</v>
       </c>
       <c r="B40">
-        <v>7.782905826347026</v>
+        <v>245.41804793716267</v>
       </c>
       <c r="C40">
-        <v>4.817337990176467</v>
+        <v>29.99739872217014</v>
       </c>
       <c r="D40">
-        <v>1.0000001139996757</v>
+        <v>0.9999907660813853</v>
       </c>
       <c r="E40">
-        <v>4.8410868406135195e-5</v>
+        <v>0.0003062111725111893</v>
       </c>
       <c r="F40">
-        <v>1.5364010749902312e-5</v>
+        <v>0.004257809377178455</v>
       </c>
       <c r="G40">
-        <v>-0.014468175206976967</v>
+        <v>-2.50765138561855e-16</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>14.940718617220845</v>
+        <v>162.67503610795453</v>
       </c>
       <c r="B41">
-        <v>7.876810533015632</v>
+        <v>242.0013912826633</v>
       </c>
       <c r="C41">
-        <v>4.826866926795456</v>
+        <v>29.999999697294573</v>
       </c>
       <c r="D41">
-        <v>0.9999998975437664</v>
+        <v>0.9999913170876787</v>
       </c>
       <c r="E41">
-        <v>1.9236879604747434e-5</v>
+        <v>0.000541459056089034</v>
       </c>
       <c r="F41">
-        <v>6.321753044470704e-6</v>
+        <v>0.004105750185384234</v>
       </c>
       <c r="G41">
-        <v>-0.014492620787887763</v>
+        <v>1.0725512784123208e-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>160.57222429731482</v>
+      </c>
+      <c r="B42">
+        <v>238.96767220366115</v>
+      </c>
+      <c r="C42">
+        <v>29.999999998756707</v>
+      </c>
+      <c r="D42">
+        <v>0.9999988981324578</v>
+      </c>
+      <c r="E42">
+        <v>0.0012779228189749537</v>
+      </c>
+      <c r="F42">
+        <v>0.0034868877155437455</v>
+      </c>
+      <c r="G42">
+        <v>-8.663599100722177e-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>158.8576391603501</v>
+      </c>
+      <c r="B43">
+        <v>235.64003579642176</v>
+      </c>
+      <c r="C43">
+        <v>29.999714757443805</v>
+      </c>
+      <c r="D43">
+        <v>1.0000032340835834</v>
+      </c>
+      <c r="E43">
+        <v>-0.00010300589032815306</v>
+      </c>
+      <c r="F43">
+        <v>-0.0007392804339957129</v>
+      </c>
+      <c r="G43">
+        <v>-0.0010105127744392713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>157.4947660493461</v>
+      </c>
+      <c r="B44">
+        <v>232.14440395973634</v>
+      </c>
+      <c r="C44">
+        <v>29.99834758169128</v>
+      </c>
+      <c r="D44">
+        <v>1.000003770772629</v>
+      </c>
+      <c r="E44">
+        <v>0.002458525200289251</v>
+      </c>
+      <c r="F44">
+        <v>-0.002962858085957507</v>
+      </c>
+      <c r="G44">
+        <v>-1.0787710377216331e-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>155.47864961793204</v>
+      </c>
+      <c r="B45">
+        <v>228.9857490762734</v>
+      </c>
+      <c r="C45">
+        <v>29.99997494805308</v>
+      </c>
+      <c r="D45">
+        <v>1.000001199249528</v>
+      </c>
+      <c r="E45">
+        <v>0.00037656581761844716</v>
+      </c>
+      <c r="F45">
+        <v>0.001160328554947134</v>
+      </c>
+      <c r="G45">
+        <v>0.0023708963677035624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>153.6547419309566</v>
+      </c>
+      <c r="B46">
+        <v>225.6717250783439</v>
+      </c>
+      <c r="C46">
+        <v>29.997895537424363</v>
+      </c>
+      <c r="D46">
+        <v>1.000002100379921</v>
+      </c>
+      <c r="E46">
+        <v>-0.0004076482537424106</v>
+      </c>
+      <c r="F46">
+        <v>-0.003950355696988771</v>
+      </c>
+      <c r="G46">
+        <v>6.494412637504897e-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>151.5707366562372</v>
+      </c>
+      <c r="B47">
+        <v>222.43328702565216</v>
+      </c>
+      <c r="C47">
+        <v>29.99668705173208</v>
+      </c>
+      <c r="D47">
+        <v>0.9999974086033535</v>
+      </c>
+      <c r="E47">
+        <v>0.0004185243830201776</v>
+      </c>
+      <c r="F47">
+        <v>0.002233321563590046</v>
+      </c>
+      <c r="G47">
+        <v>2.6619416739943856e-16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>149.85522178355907</v>
+      </c>
+      <c r="B48">
+        <v>218.944757459378</v>
+      </c>
+      <c r="C48">
+        <v>29.999999720242922</v>
+      </c>
+      <c r="D48">
+        <v>0.9999997434006332</v>
+      </c>
+      <c r="E48">
+        <v>-0.0006646709096674746</v>
+      </c>
+      <c r="F48">
+        <v>0.0002668611261375911</v>
+      </c>
+      <c r="G48">
+        <v>1.1934736688751204e-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>147.9151035035726</v>
+      </c>
+      <c r="B49">
+        <v>215.59469242808262</v>
+      </c>
+      <c r="C49">
+        <v>29.99737233510338</v>
+      </c>
+      <c r="D49">
+        <v>1.000001099883639</v>
+      </c>
+      <c r="E49">
+        <v>-3.5526774411106074e-5</v>
+      </c>
+      <c r="F49">
+        <v>-0.0010922080172290794</v>
+      </c>
+      <c r="G49">
+        <v>-8.2928019355804e-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>145.2511564040578</v>
+      </c>
+      <c r="B50">
+        <v>212.86641681232769</v>
+      </c>
+      <c r="C50">
+        <v>29.997344890197393</v>
+      </c>
+      <c r="D50">
+        <v>0.9999899296463036</v>
+      </c>
+      <c r="E50">
+        <v>0.0024798642315753882</v>
+      </c>
+      <c r="F50">
+        <v>0.0037014342918346866</v>
+      </c>
+      <c r="G50">
+        <v>2.2901460081997053e-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>143.015036665555</v>
+      </c>
+      <c r="B51">
+        <v>209.67075756215698</v>
+      </c>
+      <c r="C51">
+        <v>29.999999778141106</v>
+      </c>
+      <c r="D51">
+        <v>0.9999993201442744</v>
+      </c>
+      <c r="E51">
+        <v>6.599914432236091e-5</v>
+      </c>
+      <c r="F51">
+        <v>0.0011636062542726574</v>
+      </c>
+      <c r="G51">
+        <v>4.392713275983156e-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>140.36487810342322</v>
+      </c>
+      <c r="B52">
+        <v>206.91264417097645</v>
+      </c>
+      <c r="C52">
+        <v>29.998011859838876</v>
+      </c>
+      <c r="D52">
+        <v>1.0000008409016103</v>
+      </c>
+      <c r="E52">
+        <v>0.00045465797728324014</v>
+      </c>
+      <c r="F52">
+        <v>0.0006642671158282702</v>
+      </c>
+      <c r="G52">
+        <v>0.001686954892228271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>137.9481188350077</v>
+      </c>
+      <c r="B53">
+        <v>203.83690417877975</v>
+      </c>
+      <c r="C53">
+        <v>29.99999964848113</v>
+      </c>
+      <c r="D53">
+        <v>0.9999994539517782</v>
+      </c>
+      <c r="E53">
+        <v>0.00012211942766966874</v>
+      </c>
+      <c r="F53">
+        <v>0.0010374474896407034</v>
+      </c>
+      <c r="G53">
+        <v>-4.815616916999201e-16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>135.00233392600003</v>
+      </c>
+      <c r="B54">
+        <v>201.41768623728723</v>
+      </c>
+      <c r="C54">
+        <v>29.997985470531216</v>
+      </c>
+      <c r="D54">
+        <v>0.9999943325008553</v>
+      </c>
+      <c r="E54">
+        <v>0.003216697590138514</v>
+      </c>
+      <c r="F54">
+        <v>0.00349638146543396</v>
+      </c>
+      <c r="G54">
+        <v>-0.0004003377333048155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>132.75761063806388</v>
+      </c>
+      <c r="B55">
+        <v>198.21169576500193</v>
+      </c>
+      <c r="C55">
+        <v>29.996462470241447</v>
+      </c>
+      <c r="D55">
+        <v>0.9999993827456134</v>
+      </c>
+      <c r="E55">
+        <v>-0.0009928644924365837</v>
+      </c>
+      <c r="F55">
+        <v>-0.0004975847708712493</v>
+      </c>
+      <c r="G55">
+        <v>7.90024900208063e-18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>130.73722215683577</v>
+      </c>
+      <c r="B56">
+        <v>194.86068271942423</v>
+      </c>
+      <c r="C56">
+        <v>29.999999667179704</v>
+      </c>
+      <c r="D56">
+        <v>0.9999982941783085</v>
+      </c>
+      <c r="E56">
+        <v>-0.0013382698851436932</v>
+      </c>
+      <c r="F56">
+        <v>-0.0012696707946858524</v>
+      </c>
+      <c r="G56">
+        <v>-1.8128601367495735e-16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>128.2630219726235</v>
+      </c>
+      <c r="B57">
+        <v>191.82802110871964</v>
+      </c>
+      <c r="C57">
+        <v>29.997235360910274</v>
+      </c>
+      <c r="D57">
+        <v>1.0000008620374383</v>
+      </c>
+      <c r="E57">
+        <v>-0.00034940787034933404</v>
+      </c>
+      <c r="F57">
+        <v>-0.0012491510697214337</v>
+      </c>
+      <c r="G57">
+        <v>-8.523100964340915e-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>125.18139196242181</v>
+      </c>
+      <c r="B58">
+        <v>189.52115076483622</v>
+      </c>
+      <c r="C58">
+        <v>29.99742379482364</v>
+      </c>
+      <c r="D58">
+        <v>0.9999906732625461</v>
+      </c>
+      <c r="E58">
+        <v>0.0030390804411899956</v>
+      </c>
+      <c r="F58">
+        <v>0.00302779547800959</v>
+      </c>
+      <c r="G58">
+        <v>-1.7908147918373747e-16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>122.42487674369336</v>
+      </c>
+      <c r="B59">
+        <v>186.72496825918904</v>
+      </c>
+      <c r="C59">
+        <v>29.997588483135033</v>
+      </c>
+      <c r="D59">
+        <v>0.9999993671407235</v>
+      </c>
+      <c r="E59">
+        <v>0.0004093557287788128</v>
+      </c>
+      <c r="F59">
+        <v>0.0010473512538320654</v>
+      </c>
+      <c r="G59">
+        <v>1.0374499656230379e-16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>119.64286180900908</v>
+      </c>
+      <c r="B60">
+        <v>183.94014173577045</v>
+      </c>
+      <c r="C60">
+        <v>29.99759943374482</v>
+      </c>
+      <c r="D60">
+        <v>0.9999995243709949</v>
+      </c>
+      <c r="E60">
+        <v>0.0003596632283628968</v>
+      </c>
+      <c r="F60">
+        <v>0.0009062122888995935</v>
+      </c>
+      <c r="G60">
+        <v>5.867183821304306e-16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>116.48131586184584</v>
+      </c>
+      <c r="B61">
+        <v>181.6597944729274</v>
+      </c>
+      <c r="C61">
+        <v>29.997555632448524</v>
+      </c>
+      <c r="D61">
+        <v>0.9999949948870045</v>
+      </c>
+      <c r="E61">
+        <v>0.0022643897001145413</v>
+      </c>
+      <c r="F61">
+        <v>0.0021929765950682136</v>
+      </c>
+      <c r="G61">
+        <v>4.922700629580729e-16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>113.70441337275074</v>
+      </c>
+      <c r="B62">
+        <v>178.85719189152155</v>
+      </c>
+      <c r="C62">
+        <v>29.999999774646867</v>
+      </c>
+      <c r="D62">
+        <v>0.9999999354231358</v>
+      </c>
+      <c r="E62">
+        <v>-0.0003144910367708923</v>
+      </c>
+      <c r="F62">
+        <v>0.00017388701760385962</v>
+      </c>
+      <c r="G62">
+        <v>1.6302742582349624e-15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>111.30934323065723</v>
+      </c>
+      <c r="B63">
+        <v>175.7667606257086</v>
+      </c>
+      <c r="C63">
+        <v>29.9979957222552</v>
+      </c>
+      <c r="D63">
+        <v>1.0000015509605507</v>
+      </c>
+      <c r="E63">
+        <v>0.0008297229959508387</v>
+      </c>
+      <c r="F63">
+        <v>0.000818388470480139</v>
+      </c>
+      <c r="G63">
+        <v>0.0002251531497013556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>108.98707403032742</v>
+      </c>
+      <c r="B64">
+        <v>172.59003697157004</v>
+      </c>
+      <c r="C64">
+        <v>29.999999631119575</v>
+      </c>
+      <c r="D64">
+        <v>0.999998087328256</v>
+      </c>
+      <c r="E64">
+        <v>-0.0014090033540000912</v>
+      </c>
+      <c r="F64">
+        <v>-0.0013525010753742649</v>
+      </c>
+      <c r="G64">
+        <v>-7.840460244027339e-16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>105.80037787122995</v>
+      </c>
+      <c r="B65">
+        <v>170.41671900681143</v>
+      </c>
+      <c r="C65">
+        <v>29.99803986071457</v>
+      </c>
+      <c r="D65">
+        <v>0.9999955624113693</v>
+      </c>
+      <c r="E65">
+        <v>0.0032484909938179556</v>
+      </c>
+      <c r="F65">
+        <v>0.00270030224939876</v>
+      </c>
+      <c r="G65">
+        <v>0.0002245232220530485</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>102.68978142858467</v>
+      </c>
+      <c r="B66">
+        <v>168.06343548705158</v>
+      </c>
+      <c r="C66">
+        <v>29.99736227811341</v>
+      </c>
+      <c r="D66">
+        <v>1.0000011828951956</v>
+      </c>
+      <c r="E66">
+        <v>0.0015162916116719083</v>
+      </c>
+      <c r="F66">
+        <v>0.0016757637770816194</v>
+      </c>
+      <c r="G66">
+        <v>0.0023509132710975243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>99.81840351671345</v>
+      </c>
+      <c r="B67">
+        <v>165.35471192029254</v>
+      </c>
+      <c r="C67">
+        <v>29.99773166416231</v>
+      </c>
+      <c r="D67">
+        <v>0.9999999446199455</v>
+      </c>
+      <c r="E67">
+        <v>-0.00020858922626763323</v>
+      </c>
+      <c r="F67">
+        <v>0.0002593095004721968</v>
+      </c>
+      <c r="G67">
+        <v>-3.196859121581154e-16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>97.44403218138109</v>
+      </c>
+      <c r="B68">
+        <v>166.4633264826691</v>
+      </c>
+      <c r="C68">
+        <v>29.99087067455967</v>
+      </c>
+      <c r="D68">
+        <v>0.9998699293610563</v>
+      </c>
+      <c r="E68">
+        <v>0.014983366805895022</v>
+      </c>
+      <c r="F68">
+        <v>-0.0017708519885987631</v>
+      </c>
+      <c r="G68">
+        <v>1.3648555987159816e-15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>94.66336012722951</v>
+      </c>
+      <c r="B69">
+        <v>167.53968893107182</v>
+      </c>
+      <c r="C69">
+        <v>29.999952035256676</v>
+      </c>
+      <c r="D69">
+        <v>0.9999531666324393</v>
+      </c>
+      <c r="E69">
+        <v>0.009879559297739758</v>
+      </c>
+      <c r="F69">
+        <v>0.00019267040626721045</v>
+      </c>
+      <c r="G69">
+        <v>1.4397027596169685e-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>91.28765158111322</v>
+      </c>
+      <c r="B70">
+        <v>166.76545803880725</v>
+      </c>
+      <c r="C70">
+        <v>29.998211265890095</v>
+      </c>
+      <c r="D70">
+        <v>1.0000049067321883</v>
+      </c>
+      <c r="E70">
+        <v>-8.904617005687051e-5</v>
+      </c>
+      <c r="F70">
+        <v>-0.00013280056985300764</v>
+      </c>
+      <c r="G70">
+        <v>0.0019035239262554652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>87.84411324557576</v>
+      </c>
+      <c r="B71">
+        <v>166.2707331174361</v>
+      </c>
+      <c r="C71">
+        <v>29.995518008443554</v>
+      </c>
+      <c r="D71">
+        <v>1.0000028608354352</v>
+      </c>
+      <c r="E71">
+        <v>-0.0003035770935769075</v>
+      </c>
+      <c r="F71">
+        <v>-0.00038707089118076687</v>
+      </c>
+      <c r="G71">
+        <v>0.005922626522184994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>84.2292191774389</v>
+      </c>
+      <c r="B72">
+        <v>166.07887311088714</v>
+      </c>
+      <c r="C72">
+        <v>29.99738785627875</v>
+      </c>
+      <c r="D72">
+        <v>0.9999927647756323</v>
+      </c>
+      <c r="E72">
+        <v>0.0029323414383410056</v>
+      </c>
+      <c r="F72">
+        <v>0.0023915568675568245</v>
+      </c>
+      <c r="G72">
+        <v>6.945738547749234e-17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>80.96453082830982</v>
+      </c>
+      <c r="B73">
+        <v>164.42463611272098</v>
+      </c>
+      <c r="C73">
+        <v>29.99999973335151</v>
+      </c>
+      <c r="D73">
+        <v>0.9999936542148065</v>
+      </c>
+      <c r="E73">
+        <v>-0.003515804119608763</v>
+      </c>
+      <c r="F73">
+        <v>0.00046285846027080847</v>
+      </c>
+      <c r="G73">
+        <v>-4.9490160903673484e-17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>78.42000997756905</v>
+      </c>
+      <c r="B74">
+        <v>161.96846147153911</v>
+      </c>
+      <c r="C74">
+        <v>29.99999999872081</v>
+      </c>
+      <c r="D74">
+        <v>0.9999987338421196</v>
+      </c>
+      <c r="E74">
+        <v>-0.003597091190202449</v>
+      </c>
+      <c r="F74">
+        <v>-0.0015279221943355903</v>
+      </c>
+      <c r="G74">
+        <v>2.8066476592363937e-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>76.52375647567888</v>
+      </c>
+      <c r="B75">
+        <v>159.09897310551688</v>
+      </c>
+      <c r="C75">
+        <v>29.996192145596307</v>
+      </c>
+      <c r="D75">
+        <v>0.9999813219704929</v>
+      </c>
+      <c r="E75">
+        <v>-0.00519230545154612</v>
+      </c>
+      <c r="F75">
+        <v>-0.0037961275013828778</v>
+      </c>
+      <c r="G75">
+        <v>-1.146248676832634e-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75.20667578529748</v>
+      </c>
+      <c r="B76">
+        <v>155.9942526759705</v>
+      </c>
+      <c r="C76">
+        <v>29.995370707390283</v>
+      </c>
+      <c r="D76">
+        <v>0.9999665083376161</v>
+      </c>
+      <c r="E76">
+        <v>-0.005609934797073751</v>
+      </c>
+      <c r="F76">
+        <v>-0.005710646206435476</v>
+      </c>
+      <c r="G76">
+        <v>4.571830686651932e-16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>73.89438105364505</v>
+      </c>
+      <c r="B77">
+        <v>152.78327819539726</v>
+      </c>
+      <c r="C77">
+        <v>29.996255880283474</v>
+      </c>
+      <c r="D77">
+        <v>0.9999783656217183</v>
+      </c>
+      <c r="E77">
+        <v>-0.004741127867037696</v>
+      </c>
+      <c r="F77">
+        <v>-0.004417877537557119</v>
+      </c>
+      <c r="G77">
+        <v>3.112161219728659e-16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>74.58692565754835</v>
+      </c>
+      <c r="B78">
+        <v>149.9520248127765</v>
+      </c>
+      <c r="C78">
+        <v>29.993288056612588</v>
+      </c>
+      <c r="D78">
+        <v>0.9999271050889774</v>
+      </c>
+      <c r="E78">
+        <v>-0.002161995186704583</v>
+      </c>
+      <c r="F78">
+        <v>-0.011363908055945955</v>
+      </c>
+      <c r="G78">
+        <v>-1.204192577449233e-15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>75.23682823538904</v>
+      </c>
+      <c r="B79">
+        <v>146.88474114248746</v>
+      </c>
+      <c r="C79">
+        <v>29.994342213550045</v>
+      </c>
+      <c r="D79">
+        <v>0.9999568215810616</v>
+      </c>
+      <c r="E79">
+        <v>-0.0026150284268544885</v>
+      </c>
+      <c r="F79">
+        <v>-0.00865423862718058</v>
+      </c>
+      <c r="G79">
+        <v>-1.3479078105769226e-15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>76.31388469228702</v>
+      </c>
+      <c r="B80">
+        <v>143.91688962157477</v>
+      </c>
+      <c r="C80">
+        <v>29.99525248091483</v>
+      </c>
+      <c r="D80">
+        <v>0.9999621000257383</v>
+      </c>
+      <c r="E80">
+        <v>-0.0016158839915802843</v>
+      </c>
+      <c r="F80">
+        <v>-0.008338218026146194</v>
+      </c>
+      <c r="G80">
+        <v>1.9765718523808017e-16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>77.56175575010316</v>
+      </c>
+      <c r="B81">
+        <v>140.9057560027472</v>
+      </c>
+      <c r="C81">
+        <v>29.99580778490206</v>
+      </c>
+      <c r="D81">
+        <v>0.999972654199975</v>
+      </c>
+      <c r="E81">
+        <v>-0.001420044092328673</v>
+      </c>
+      <c r="F81">
+        <v>-0.007119915374914746</v>
+      </c>
+      <c r="G81">
+        <v>9.65185290722487e-16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>79.30387706279353</v>
+      </c>
+      <c r="B82">
+        <v>138.15977879474138</v>
+      </c>
+      <c r="C82">
+        <v>29.995877228399415</v>
+      </c>
+      <c r="D82">
+        <v>0.9999712500927104</v>
+      </c>
+      <c r="E82">
+        <v>-4.605292128972578e-5</v>
+      </c>
+      <c r="F82">
+        <v>-0.007437284102285641</v>
+      </c>
+      <c r="G82">
+        <v>-7.617606239564202e-17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>81.0366706916178</v>
+      </c>
+      <c r="B83">
+        <v>135.24825528574513</v>
+      </c>
+      <c r="C83">
+        <v>29.99668108779062</v>
+      </c>
+      <c r="D83">
+        <v>0.9999831200446215</v>
+      </c>
+      <c r="E83">
+        <v>-0.0006892654565218074</v>
+      </c>
+      <c r="F83">
+        <v>-0.005700389597129565</v>
+      </c>
+      <c r="G83">
+        <v>2.415398181831777e-16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83.31030813314433</v>
+      </c>
+      <c r="B84">
+        <v>132.78467537112283</v>
+      </c>
+      <c r="C84">
+        <v>29.996431030108464</v>
+      </c>
+      <c r="D84">
+        <v>0.9999772469113707</v>
+      </c>
+      <c r="E84">
+        <v>0.0012376141479017578</v>
+      </c>
+      <c r="F84">
+        <v>-0.0065246066102043684</v>
+      </c>
+      <c r="G84">
+        <v>8.067446015650178e-16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>85.51535717996373</v>
+      </c>
+      <c r="B85">
+        <v>130.08228063062003</v>
+      </c>
+      <c r="C85">
+        <v>29.9971076711607</v>
+      </c>
+      <c r="D85">
+        <v>0.9999884734330162</v>
+      </c>
+      <c r="E85">
+        <v>1.2235185155869478e-5</v>
+      </c>
+      <c r="F85">
+        <v>-0.004761863646469968</v>
+      </c>
+      <c r="G85">
+        <v>1.3784998691631056e-16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>88.07793664598347</v>
+      </c>
+      <c r="B86">
+        <v>127.70586266050756</v>
+      </c>
+      <c r="C86">
+        <v>29.999999591480776</v>
+      </c>
+      <c r="D86">
+        <v>0.9999858948285897</v>
+      </c>
+      <c r="E86">
+        <v>0.0013005502068344642</v>
+      </c>
+      <c r="F86">
+        <v>-0.005095618299830455</v>
+      </c>
+      <c r="G86">
+        <v>5.617661296068231e-16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>90.35941298775134</v>
+      </c>
+      <c r="B87">
+        <v>125.06278905180879</v>
+      </c>
+      <c r="C87">
+        <v>29.99947068581129</v>
+      </c>
+      <c r="D87">
+        <v>1.0000004366732473</v>
+      </c>
+      <c r="E87">
+        <v>2.2137330833551684e-5</v>
+      </c>
+      <c r="F87">
+        <v>0.0010257604822565037</v>
+      </c>
+      <c r="G87">
+        <v>6.05900448156126e-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>92.61438029070942</v>
+      </c>
+      <c r="B88">
+        <v>122.3012694595764</v>
+      </c>
+      <c r="C88">
+        <v>29.998790482906422</v>
+      </c>
+      <c r="D88">
+        <v>1.0000015648225544</v>
+      </c>
+      <c r="E88">
+        <v>0.0002745883496211968</v>
+      </c>
+      <c r="F88">
+        <v>0.0011006618530697704</v>
+      </c>
+      <c r="G88">
+        <v>0.00012010132253136253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>94.56889232831554</v>
+      </c>
+      <c r="B89">
+        <v>119.25780765350592</v>
+      </c>
+      <c r="C89">
+        <v>29.999611643068114</v>
+      </c>
+      <c r="D89">
+        <v>0.9999961635355681</v>
+      </c>
+      <c r="E89">
+        <v>0.0013088608003581366</v>
+      </c>
+      <c r="F89">
+        <v>0.00033071876903513465</v>
+      </c>
+      <c r="G89">
+        <v>0.003394400918092699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>97.00613002575172</v>
+      </c>
+      <c r="B90">
+        <v>116.55692067888087</v>
+      </c>
+      <c r="C90">
+        <v>29.99836454286062</v>
+      </c>
+      <c r="D90">
+        <v>1.0000016293514338</v>
+      </c>
+      <c r="E90">
+        <v>-9.394864541798532e-5</v>
+      </c>
+      <c r="F90">
+        <v>0.0011037053622853401</v>
+      </c>
+      <c r="G90">
+        <v>-5.792679268911938e-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>99.90042801514963</v>
+      </c>
+      <c r="B91">
+        <v>114.35176038439701</v>
+      </c>
+      <c r="C91">
+        <v>29.999969905832813</v>
+      </c>
+      <c r="D91">
+        <v>0.9999928080784676</v>
+      </c>
+      <c r="E91">
+        <v>0.0021785882016606617</v>
+      </c>
+      <c r="F91">
+        <v>-0.0036743149463349008</v>
+      </c>
+      <c r="G91">
+        <v>-0.0008716639322535798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>102.80039185023223</v>
+      </c>
+      <c r="B92">
+        <v>112.1702307405641</v>
+      </c>
+      <c r="C92">
+        <v>29.998087353271945</v>
+      </c>
+      <c r="D92">
+        <v>1.0000021193366928</v>
+      </c>
+      <c r="E92">
+        <v>0.000510120445123518</v>
+      </c>
+      <c r="F92">
+        <v>-0.0008416273079169777</v>
+      </c>
+      <c r="G92">
+        <v>-0.0004347523593028364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>105.81213589157723</v>
+      </c>
+      <c r="B93">
+        <v>110.0770711793315</v>
+      </c>
+      <c r="C93">
+        <v>29.99615253492593</v>
+      </c>
+      <c r="D93">
+        <v>1.0000000011736392</v>
+      </c>
+      <c r="E93">
+        <v>-7.038154634979234e-5</v>
+      </c>
+      <c r="F93">
+        <v>4.658496634897687e-5</v>
+      </c>
+      <c r="G93">
+        <v>-0.0002047813815711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>109.14431106695488</v>
+      </c>
+      <c r="B94">
+        <v>108.46824295041911</v>
+      </c>
+      <c r="C94">
+        <v>29.99728458163026</v>
+      </c>
+      <c r="D94">
+        <v>0.9999893221831619</v>
+      </c>
+      <c r="E94">
+        <v>0.0032181617646362803</v>
+      </c>
+      <c r="F94">
+        <v>-0.0032669897681614404</v>
+      </c>
+      <c r="G94">
+        <v>-1.9453547178075403e-16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>112.31044626929366</v>
+      </c>
+      <c r="B95">
+        <v>106.37189775642742</v>
+      </c>
+      <c r="C95">
+        <v>29.99999974334937</v>
+      </c>
+      <c r="D95">
+        <v>0.9999981030487011</v>
+      </c>
+      <c r="E95">
+        <v>0.0005565413736666259</v>
+      </c>
+      <c r="F95">
+        <v>-0.0018637383320869935</v>
+      </c>
+      <c r="G95">
+        <v>3.968694126765709e-17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>115.27965309638778</v>
+      </c>
+      <c r="B96">
+        <v>104.01165764614846</v>
+      </c>
+      <c r="C96">
+        <v>29.99740291785475</v>
+      </c>
+      <c r="D96">
+        <v>1.0000010440348288</v>
+      </c>
+      <c r="E96">
+        <v>0.0006552634034226825</v>
+      </c>
+      <c r="F96">
+        <v>0.0007014372270914601</v>
+      </c>
+      <c r="G96">
+        <v>-6.009801575646379e-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>118.62839737495031</v>
+      </c>
+      <c r="B97">
+        <v>102.1639737468627</v>
+      </c>
+      <c r="C97">
+        <v>29.997178391913412</v>
+      </c>
+      <c r="D97">
+        <v>0.9999967847897102</v>
+      </c>
+      <c r="E97">
+        <v>0.0015445100961627555</v>
+      </c>
+      <c r="F97">
+        <v>-0.0020035839236941704</v>
+      </c>
+      <c r="G97">
+        <v>2.1883394197916862e-16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>121.68266333357025</v>
+      </c>
+      <c r="B98">
+        <v>99.79216745850445</v>
+      </c>
+      <c r="C98">
+        <v>29.99999977926247</v>
+      </c>
+      <c r="D98">
+        <v>0.9999995409898262</v>
+      </c>
+      <c r="E98">
+        <v>-0.0008783109534074795</v>
+      </c>
+      <c r="F98">
+        <v>-0.00038204981035860094</v>
+      </c>
+      <c r="G98">
+        <v>5.505448196527866e-16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>122.53210447556152</v>
+      </c>
+      <c r="B99">
+        <v>96.49071771201442</v>
+      </c>
+      <c r="C99">
+        <v>29.995306981117324</v>
+      </c>
+      <c r="D99">
+        <v>0.9999701688861921</v>
+      </c>
+      <c r="E99">
+        <v>-0.003667361987708751</v>
+      </c>
+      <c r="F99">
+        <v>0.00709462812484885</v>
+      </c>
+      <c r="G99">
+        <v>-2.0537278463107455e-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>123.05189303647353</v>
+      </c>
+      <c r="B100">
+        <v>93.11575794980646</v>
+      </c>
+      <c r="C100">
+        <v>29.994766639734785</v>
+      </c>
+      <c r="D100">
+        <v>0.9999609417025462</v>
+      </c>
+      <c r="E100">
+        <v>-0.0036501870439343623</v>
+      </c>
+      <c r="F100">
+        <v>0.007806889036929301</v>
+      </c>
+      <c r="G100">
+        <v>-5.002456237219309e-16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>122.65274851563079</v>
+      </c>
+      <c r="B101">
+        <v>89.91909685454287</v>
+      </c>
+      <c r="C101">
+        <v>29.994367197031927</v>
+      </c>
+      <c r="D101">
+        <v>0.9999479539883341</v>
+      </c>
+      <c r="E101">
+        <v>-0.0021045325729416135</v>
+      </c>
+      <c r="F101">
+        <v>0.009649441257733125</v>
+      </c>
+      <c r="G101">
+        <v>5.796369630768923e-16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>122.22574689191782</v>
+      </c>
+      <c r="B102">
+        <v>86.58947021561877</v>
+      </c>
+      <c r="C102">
+        <v>29.99521679256379</v>
+      </c>
+      <c r="D102">
+        <v>0.9999676091657385</v>
+      </c>
+      <c r="E102">
+        <v>-0.002154974692006488</v>
+      </c>
+      <c r="F102">
+        <v>0.0075774226068010785</v>
+      </c>
+      <c r="G102">
+        <v>-9.806848642799777e-17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>120.81636833399637</v>
+      </c>
+      <c r="B103">
+        <v>83.78735253396317</v>
+      </c>
+      <c r="C103">
+        <v>29.994406231374295</v>
+      </c>
+      <c r="D103">
+        <v>0.9999494932312639</v>
+      </c>
+      <c r="E103">
+        <v>0.0004272574468662531</v>
+      </c>
+      <c r="F103">
+        <v>0.009727468778934725</v>
+      </c>
+      <c r="G103">
+        <v>-4.453390510800357e-16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>118.8839008311929</v>
+      </c>
+      <c r="B104">
+        <v>81.40323920186489</v>
+      </c>
+      <c r="C104">
+        <v>29.994105988832825</v>
+      </c>
+      <c r="D104">
+        <v>0.9999485981612929</v>
+      </c>
+      <c r="E104">
+        <v>0.001988739661572001</v>
+      </c>
+      <c r="F104">
+        <v>0.00961622480689817</v>
+      </c>
+      <c r="G104">
+        <v>-1.8701252218993538e-16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>117.34080500620148</v>
+      </c>
+      <c r="B105">
+        <v>78.39443897396865</v>
+      </c>
+      <c r="C105">
+        <v>29.996407292302266</v>
+      </c>
+      <c r="D105">
+        <v>0.99998192413976</v>
+      </c>
+      <c r="E105">
+        <v>-0.0009374035404106497</v>
+      </c>
+      <c r="F105">
+        <v>0.005862746904228024</v>
+      </c>
+      <c r="G105">
+        <v>1.4782814277524098e-16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>115.62062795990015</v>
+      </c>
+      <c r="B106">
+        <v>75.4033082250796</v>
+      </c>
+      <c r="C106">
+        <v>29.999999543411374</v>
+      </c>
+      <c r="D106">
+        <v>0.9999858414823226</v>
+      </c>
+      <c r="E106">
+        <v>-0.0006537679521334315</v>
+      </c>
+      <c r="F106">
+        <v>0.005228000177264394</v>
+      </c>
+      <c r="G106">
+        <v>1.2862340446681368e-16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>114.49290429490037</v>
+      </c>
+      <c r="B107">
+        <v>72.12451389959504</v>
+      </c>
+      <c r="C107">
+        <v>29.99891457940037</v>
+      </c>
+      <c r="D107">
+        <v>1.0000029698821677</v>
+      </c>
+      <c r="E107">
+        <v>0.0007252138879135996</v>
+      </c>
+      <c r="F107">
+        <v>-0.0007475763603230811</v>
+      </c>
+      <c r="G107">
+        <v>0.0013807492440125976</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>112.72304435924801</v>
+      </c>
+      <c r="B108">
+        <v>69.12063746742102</v>
+      </c>
+      <c r="C108">
+        <v>29.99976217239169</v>
+      </c>
+      <c r="D108">
+        <v>0.9999954883870921</v>
+      </c>
+      <c r="E108">
+        <v>-0.0002776281761731653</v>
+      </c>
+      <c r="F108">
+        <v>0.005183570511331738</v>
+      </c>
+      <c r="G108">
+        <v>0.0018884136782169381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>110.90443105232846</v>
+      </c>
+      <c r="B109">
+        <v>66.13156181932781</v>
+      </c>
+      <c r="C109">
+        <v>29.999262825679416</v>
+      </c>
+      <c r="D109">
+        <v>1.0000023669606655</v>
+      </c>
+      <c r="E109">
+        <v>-4.9615770930087975e-5</v>
+      </c>
+      <c r="F109">
+        <v>0.001768352662809864</v>
+      </c>
+      <c r="G109">
+        <v>-4.5433180946869945e-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>108.9721073496916</v>
+      </c>
+      <c r="B110">
+        <v>63.151385408591786</v>
+      </c>
+      <c r="C110">
+        <v>29.99978447626544</v>
+      </c>
+      <c r="D110">
+        <v>1.0000023270866099</v>
+      </c>
+      <c r="E110">
+        <v>-2.9300440551438564e-6</v>
+      </c>
+      <c r="F110">
+        <v>-9.859210756550294e-5</v>
+      </c>
+      <c r="G110">
+        <v>-0.00023636327844415251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>106.40490632108379</v>
+      </c>
+      <c r="B111">
+        <v>60.62725924166388</v>
+      </c>
+      <c r="C111">
+        <v>29.998757151924263</v>
+      </c>
+      <c r="D111">
+        <v>0.9999926005974157</v>
+      </c>
+      <c r="E111">
+        <v>0.0016971590072331034</v>
+      </c>
+      <c r="F111">
+        <v>0.004587850036553596</v>
+      </c>
+      <c r="G111">
+        <v>-0.0002825733984079607</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>103.55499123304284</v>
+      </c>
+      <c r="B112">
+        <v>58.441296656361075</v>
+      </c>
+      <c r="C112">
+        <v>29.99997173717826</v>
+      </c>
+      <c r="D112">
+        <v>0.9999900120957506</v>
+      </c>
+      <c r="E112">
+        <v>0.003097636671794635</v>
+      </c>
+      <c r="F112">
+        <v>0.0055167388158417026</v>
+      </c>
+      <c r="G112">
+        <v>-0.00010240941713151751</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>101.17102970377394</v>
+      </c>
+      <c r="B113">
+        <v>55.678338738758605</v>
+      </c>
+      <c r="C113">
+        <v>29.997981441450698</v>
+      </c>
+      <c r="D113">
+        <v>1.000002438109606</v>
+      </c>
+      <c r="E113">
+        <v>0.0001283753931072385</v>
+      </c>
+      <c r="F113">
+        <v>-0.0012187869760455052</v>
+      </c>
+      <c r="G113">
+        <v>-2.0853047932151268e-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>98.87326722740146</v>
+      </c>
+      <c r="B114">
+        <v>52.694185719504915</v>
+      </c>
+      <c r="C114">
+        <v>29.999999628299207</v>
+      </c>
+      <c r="D114">
+        <v>0.999998861426736</v>
+      </c>
+      <c r="E114">
+        <v>-0.001030324688018126</v>
+      </c>
+      <c r="F114">
+        <v>0.0011007893511631125</v>
+      </c>
+      <c r="G114">
+        <v>1.1377923699005828e-16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>96.38740747379751</v>
+      </c>
+      <c r="B115">
+        <v>49.96480844805234</v>
+      </c>
+      <c r="C115">
+        <v>29.997889899954323</v>
+      </c>
+      <c r="D115">
+        <v>1.000002156810383</v>
+      </c>
+      <c r="E115">
+        <v>-0.0005638792314560932</v>
+      </c>
+      <c r="F115">
+        <v>-0.004069373569085632</v>
+      </c>
+      <c r="G115">
+        <v>6.60145919298847e-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>93.77437866490754</v>
+      </c>
+      <c r="B116">
+        <v>47.19486707617425</v>
+      </c>
+      <c r="C116">
+        <v>29.996655120290182</v>
+      </c>
+      <c r="D116">
+        <v>0.999998484269647</v>
+      </c>
+      <c r="E116">
+        <v>7.2262516363723685e-6</v>
+      </c>
+      <c r="F116">
+        <v>0.0017391285377964883</v>
+      </c>
+      <c r="G116">
+        <v>-5.183274248078609e-16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>90.95814516937644</v>
+      </c>
+      <c r="B117">
+        <v>44.614766128205616</v>
+      </c>
+      <c r="C117">
+        <v>29.99999967537753</v>
+      </c>
+      <c r="D117">
+        <v>0.9999974061279334</v>
+      </c>
+      <c r="E117">
+        <v>0.0007555037487055861</v>
+      </c>
+      <c r="F117">
+        <v>0.0021440926989167615</v>
+      </c>
+      <c r="G117">
+        <v>-2.7529435354941e-16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>87.78529593482422</v>
+      </c>
+      <c r="B118">
+        <v>42.700192932956035</v>
+      </c>
+      <c r="C118">
+        <v>29.998600018325682</v>
+      </c>
+      <c r="D118">
+        <v>0.9999926273798768</v>
+      </c>
+      <c r="E118">
+        <v>0.00410415456284302</v>
+      </c>
+      <c r="F118">
+        <v>0.004001751117906455</v>
+      </c>
+      <c r="G118">
+        <v>-0.0008223887009093659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>84.34563414895152</v>
+      </c>
+      <c r="B119">
+        <v>41.449396096585794</v>
+      </c>
+      <c r="C119">
+        <v>29.99683891590749</v>
+      </c>
+      <c r="D119">
+        <v>0.9999886579660359</v>
+      </c>
+      <c r="E119">
+        <v>0.0044458053962452134</v>
+      </c>
+      <c r="F119">
+        <v>0.0029848634744128744</v>
+      </c>
+      <c r="G119">
+        <v>3.40024199660256e-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>80.82942908165475</v>
+      </c>
+      <c r="B120">
+        <v>40.85847498064567</v>
+      </c>
+      <c r="C120">
+        <v>29.996031223355967</v>
+      </c>
+      <c r="D120">
+        <v>0.9999732445858579</v>
+      </c>
+      <c r="E120">
+        <v>0.006548828282628389</v>
+      </c>
+      <c r="F120">
+        <v>0.002952618326658515</v>
+      </c>
+      <c r="G120">
+        <v>9.939744582920028e-17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>77.25940825969724</v>
+      </c>
+      <c r="B121">
+        <v>40.49920051305814</v>
+      </c>
+      <c r="C121">
+        <v>29.99638651284485</v>
+      </c>
+      <c r="D121">
+        <v>0.9999784680509408</v>
+      </c>
+      <c r="E121">
+        <v>0.005966755945053203</v>
+      </c>
+      <c r="F121">
+        <v>0.002490186570445468</v>
+      </c>
+      <c r="G121">
+        <v>-5.573582495586504e-16</v>
       </c>
     </row>
   </sheetData>
